--- a/excel/collective/zestawy_dla_uczniow/zestaw_045.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_045.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="306">
   <si>
     <t>ZESTAW ZADAŃ NR 45 - CZĘŚĆ 1</t>
   </si>
@@ -61,19 +61,19 @@
     <t>Przedmiot</t>
   </si>
   <si>
-    <t>Kacper Dąbrowski</t>
-  </si>
-  <si>
-    <t>Natalia Bednarska</t>
-  </si>
-  <si>
-    <t>Emilia Zawadzka</t>
-  </si>
-  <si>
-    <t>Jakub Kamiński</t>
-  </si>
-  <si>
-    <t>Adam Nowak</t>
+    <t>Oliwia Czarnecka</t>
+  </si>
+  <si>
+    <t>Lena Górska</t>
+  </si>
+  <si>
+    <t>Kacper Szymański</t>
+  </si>
+  <si>
+    <t>Oliwia Górska</t>
+  </si>
+  <si>
+    <t>Oliwia Piekarska</t>
   </si>
   <si>
     <t>ŚREDNIA</t>
@@ -160,42 +160,36 @@
     <t>Razem (zł)</t>
   </si>
   <si>
-    <t>Cyrkiel</t>
-  </si>
-  <si>
-    <t>9,20</t>
+    <t>Ołówek HB</t>
+  </si>
+  <si>
+    <t>1,50</t>
+  </si>
+  <si>
+    <t>Linijka 30 cm</t>
+  </si>
+  <si>
+    <t>4,10</t>
+  </si>
+  <si>
+    <t>Długopis niebieski</t>
+  </si>
+  <si>
+    <t>1,90</t>
+  </si>
+  <si>
+    <t>Gumka do mazania</t>
+  </si>
+  <si>
+    <t>Zeszyt 60 kartek</t>
+  </si>
+  <si>
+    <t>5,20</t>
   </si>
   <si>
     <t>Pędzelek</t>
   </si>
   <si>
-    <t>4,40</t>
-  </si>
-  <si>
-    <t>Temperówka</t>
-  </si>
-  <si>
-    <t>2,80</t>
-  </si>
-  <si>
-    <t>Farby plakatowe 12 kolorów</t>
-  </si>
-  <si>
-    <t>14,50</t>
-  </si>
-  <si>
-    <t>Długopis niebieski</t>
-  </si>
-  <si>
-    <t>1,20</t>
-  </si>
-  <si>
-    <t>Zeszyt 60 kartek</t>
-  </si>
-  <si>
-    <t>4,00</t>
-  </si>
-  <si>
     <t>SUMA:</t>
   </si>
   <si>
@@ -220,31 +214,31 @@
     <t>Zeszyt</t>
   </si>
   <si>
-    <t>24,02</t>
+    <t>24,37</t>
   </si>
   <si>
     <t>Ołówek</t>
   </si>
   <si>
-    <t>16,91</t>
+    <t>30,27</t>
   </si>
   <si>
     <t>Długopis</t>
   </si>
   <si>
-    <t>1,61</t>
+    <t>2,55</t>
   </si>
   <si>
     <t>Linijka</t>
   </si>
   <si>
-    <t>16,60</t>
+    <t>15,24</t>
   </si>
   <si>
     <t>Gumka</t>
   </si>
   <si>
-    <t>6,84</t>
+    <t>22,25</t>
   </si>
   <si>
     <t>Razem Styczeń:</t>
@@ -253,19 +247,19 @@
     <t>Luty:</t>
   </si>
   <si>
-    <t>16,58</t>
-  </si>
-  <si>
-    <t>18,84</t>
-  </si>
-  <si>
-    <t>11,10</t>
-  </si>
-  <si>
-    <t>25,17</t>
-  </si>
-  <si>
-    <t>15,15</t>
+    <t>5,35</t>
+  </si>
+  <si>
+    <t>22,73</t>
+  </si>
+  <si>
+    <t>9,68</t>
+  </si>
+  <si>
+    <t>23,36</t>
+  </si>
+  <si>
+    <t>28,41</t>
   </si>
   <si>
     <t>Razem Luty:</t>
@@ -274,19 +268,19 @@
     <t>Marzec:</t>
   </si>
   <si>
-    <t>6,17</t>
-  </si>
-  <si>
-    <t>25,62</t>
-  </si>
-  <si>
-    <t>4,56</t>
-  </si>
-  <si>
-    <t>20,82</t>
-  </si>
-  <si>
-    <t>19,35</t>
+    <t>12,24</t>
+  </si>
+  <si>
+    <t>29,92</t>
+  </si>
+  <si>
+    <t>3,55</t>
+  </si>
+  <si>
+    <t>27,61</t>
+  </si>
+  <si>
+    <t>3,85</t>
   </si>
   <si>
     <t>Razem Marzec:</t>
@@ -340,40 +334,34 @@
     <t>Czy pasek?</t>
   </si>
   <si>
-    <t>Mikołaj</t>
+    <t>Amelia</t>
+  </si>
+  <si>
+    <t>Kaźmierczak</t>
+  </si>
+  <si>
+    <t>Jakub</t>
   </si>
   <si>
     <t>Kozłowski</t>
   </si>
   <si>
-    <t>Jakub</t>
-  </si>
-  <si>
-    <t>Kowalczyk</t>
-  </si>
-  <si>
-    <t>Hanna</t>
-  </si>
-  <si>
-    <t>Zawadzka</t>
-  </si>
-  <si>
-    <t>Adam</t>
-  </si>
-  <si>
-    <t>Zuzanna</t>
-  </si>
-  <si>
-    <t>Sadowska</t>
-  </si>
-  <si>
-    <t>Wojciech</t>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Kowalski</t>
+  </si>
+  <si>
+    <t>Filip</t>
+  </si>
+  <si>
+    <t>Wiśniewski</t>
   </si>
   <si>
     <t>Kwiatkowski</t>
   </si>
   <si>
-    <t>Filip</t>
+    <t>Kacper</t>
   </si>
   <si>
     <t>Jankowski</t>
@@ -412,112 +400,136 @@
     <t>Zarobki (zł)</t>
   </si>
   <si>
-    <t>Natalia Kubiak</t>
-  </si>
-  <si>
-    <t>17.01.2000</t>
-  </si>
-  <si>
-    <t>13 616,00 zł</t>
-  </si>
-  <si>
-    <t>Natalia Maciejewska</t>
-  </si>
-  <si>
-    <t>06.12.1998</t>
-  </si>
-  <si>
-    <t>5 382,00 zł</t>
-  </si>
-  <si>
-    <t>Adam Jankowski</t>
-  </si>
-  <si>
-    <t>13.02.1975</t>
-  </si>
-  <si>
-    <t>10 044,00 zł</t>
+    <t>Emilia Bednarska</t>
+  </si>
+  <si>
+    <t>04.05.1990</t>
+  </si>
+  <si>
+    <t>13 794,00 zł</t>
+  </si>
+  <si>
+    <t>Oliwia Rogalska</t>
+  </si>
+  <si>
+    <t>14.07.1986</t>
+  </si>
+  <si>
+    <t>10 098,00 zł</t>
+  </si>
+  <si>
+    <t>Jakub Kaczmarek</t>
+  </si>
+  <si>
+    <t>21.01.1980</t>
+  </si>
+  <si>
+    <t>8 884,00 zł</t>
+  </si>
+  <si>
+    <t>Hanna Borkowska</t>
+  </si>
+  <si>
+    <t>05.09.1983</t>
+  </si>
+  <si>
+    <t>8 909,00 zł</t>
+  </si>
+  <si>
+    <t>Julia Czarnecka</t>
+  </si>
+  <si>
+    <t>25.12.1985</t>
+  </si>
+  <si>
+    <t>9 091,00 zł</t>
+  </si>
+  <si>
+    <t>Amelia Bednarska</t>
+  </si>
+  <si>
+    <t>09.06.1998</t>
+  </si>
+  <si>
+    <t>6 991,00 zł</t>
+  </si>
+  <si>
+    <t>Anna Sikorska</t>
+  </si>
+  <si>
+    <t>26.02.2003</t>
+  </si>
+  <si>
+    <t>6 564,00 zł</t>
+  </si>
+  <si>
+    <t>24.11.2003</t>
+  </si>
+  <si>
+    <t>11 004,00 zł</t>
+  </si>
+  <si>
+    <t>Kacper Grabowski</t>
+  </si>
+  <si>
+    <t>15.06.2003</t>
+  </si>
+  <si>
+    <t>9 936,00 zł</t>
+  </si>
+  <si>
+    <t>Natalia Sikorska</t>
+  </si>
+  <si>
+    <t>19.06.1975</t>
+  </si>
+  <si>
+    <t>12 993,00 zł</t>
+  </si>
+  <si>
+    <t>Zuzanna Olszewska</t>
+  </si>
+  <si>
+    <t>10.06.2004</t>
+  </si>
+  <si>
+    <t>7 206,00 zł</t>
   </si>
   <si>
     <t>Wojciech Grabowski</t>
   </si>
   <si>
-    <t>11.02.1989</t>
-  </si>
-  <si>
-    <t>13 344,00 zł</t>
-  </si>
-  <si>
-    <t>Aleksander Krawczyk</t>
-  </si>
-  <si>
-    <t>24.05.1991</t>
-  </si>
-  <si>
-    <t>5 175,00 zł</t>
-  </si>
-  <si>
-    <t>Mikołaj Wojciechowski</t>
-  </si>
-  <si>
-    <t>07.08.1993</t>
-  </si>
-  <si>
-    <t>11 577,00 zł</t>
-  </si>
-  <si>
-    <t>Filip Kwiatkowski</t>
-  </si>
-  <si>
-    <t>10.09.1998</t>
-  </si>
-  <si>
-    <t>12 656,00 zł</t>
-  </si>
-  <si>
-    <t>Lena Górska</t>
-  </si>
-  <si>
-    <t>01.06.1992</t>
-  </si>
-  <si>
-    <t>8 330,00 zł</t>
-  </si>
-  <si>
-    <t>Emilia Urbaniak</t>
-  </si>
-  <si>
-    <t>23.05.1992</t>
-  </si>
-  <si>
-    <t>8 586,00 zł</t>
-  </si>
-  <si>
-    <t>Lena Jaworska</t>
-  </si>
-  <si>
-    <t>01.02.2005</t>
-  </si>
-  <si>
-    <t>4 213,00 zł</t>
-  </si>
-  <si>
-    <t>Anna Wójcik</t>
-  </si>
-  <si>
-    <t>05.04.1993</t>
-  </si>
-  <si>
-    <t>12 648,00 zł</t>
-  </si>
-  <si>
-    <t>Zuzanna Zawadzka</t>
-  </si>
-  <si>
-    <t>25.07.2003</t>
-  </si>
-  <si>
-    <t>13 376,00 zł</t>
+    <t>10.04.1975</t>
+  </si>
+  <si>
+    <t>8 093,00 zł</t>
+  </si>
+  <si>
+    <t>Emilia Wilk</t>
+  </si>
+  <si>
+    <t>24.01.1992</t>
+  </si>
+  <si>
+    <t>8 104,00 zł</t>
+  </si>
+  <si>
+    <t>Natalia Urbaniak</t>
+  </si>
+  <si>
+    <t>23.06.1996</t>
+  </si>
+  <si>
+    <t>4 483,00 zł</t>
+  </si>
+  <si>
+    <t>Maja Czarnecka</t>
+  </si>
+  <si>
+    <t>19.12.2004</t>
+  </si>
+  <si>
+    <t>5 639,00 zł</t>
   </si>
   <si>
     <t>OBLICZENIA:</t>
@@ -589,325 +601,328 @@
     <t>Województwo</t>
   </si>
   <si>
-    <t>Luty</t>
-  </si>
-  <si>
-    <t>Klawiatura mechaniczna</t>
-  </si>
-  <si>
-    <t>1 328,00 zł</t>
+    <t>czerwiec</t>
+  </si>
+  <si>
+    <t>Powerbank 20000mAh</t>
+  </si>
+  <si>
+    <t>1 148,00 zł</t>
+  </si>
+  <si>
+    <t>1 309,00 zł</t>
+  </si>
+  <si>
+    <t>Tomasz Kamiński</t>
+  </si>
+  <si>
+    <t>podlaskie</t>
+  </si>
+  <si>
+    <t>maj</t>
+  </si>
+  <si>
+    <t>Zasilacz 650W</t>
+  </si>
+  <si>
+    <t>1 317,00 zł</t>
   </si>
   <si>
     <t>1 620,00 zł</t>
   </si>
   <si>
-    <t>Piotr Wiśniewski</t>
+    <t>Monika Krawczyk</t>
+  </si>
+  <si>
+    <t>zachodniopomorskie</t>
+  </si>
+  <si>
+    <t>luty</t>
+  </si>
+  <si>
+    <t>Router Wi-Fi 6</t>
+  </si>
+  <si>
+    <t>1 114,00 zł</t>
+  </si>
+  <si>
+    <t>1 404,00 zł</t>
+  </si>
+  <si>
+    <t>Ewa Kowalczyk</t>
+  </si>
+  <si>
+    <t>podkarpackie</t>
+  </si>
+  <si>
+    <t>Pamięć RAM 16GB</t>
+  </si>
+  <si>
+    <t>1 127,00 zł</t>
+  </si>
+  <si>
+    <t>1 341,00 zł</t>
+  </si>
+  <si>
+    <t>Marcin Zieliński</t>
+  </si>
+  <si>
+    <t>dolnośląskie</t>
+  </si>
+  <si>
+    <t>Głośnik Bluetooth</t>
+  </si>
+  <si>
+    <t>527,00 zł</t>
+  </si>
+  <si>
+    <t>601,00 zł</t>
+  </si>
+  <si>
+    <t>Andrzej Woźniak</t>
+  </si>
+  <si>
+    <t>Kamera internetowa</t>
+  </si>
+  <si>
+    <t>748,00 zł</t>
+  </si>
+  <si>
+    <t>860,00 zł</t>
+  </si>
+  <si>
+    <t>Barbara Kozłowska</t>
+  </si>
+  <si>
+    <t>łódzkie</t>
+  </si>
+  <si>
+    <t>styczeń</t>
+  </si>
+  <si>
+    <t>1 184,00 zł</t>
+  </si>
+  <si>
+    <t>1 563,00 zł</t>
+  </si>
+  <si>
+    <t>Paweł Kwiatkowski</t>
+  </si>
+  <si>
+    <t>wielkopolskie</t>
+  </si>
+  <si>
+    <t>marzec</t>
+  </si>
+  <si>
+    <t>Monitor 24" 4K</t>
+  </si>
+  <si>
+    <t>1 216,00 zł</t>
+  </si>
+  <si>
+    <t>1 374,00 zł</t>
+  </si>
+  <si>
+    <t>lubelskie</t>
+  </si>
+  <si>
+    <t>Procesor i5</t>
+  </si>
+  <si>
+    <t>1 247,00 zł</t>
+  </si>
+  <si>
+    <t>1 721,00 zł</t>
+  </si>
+  <si>
+    <t>Katarzyna Mazur</t>
+  </si>
+  <si>
+    <t>opolskie</t>
+  </si>
+  <si>
+    <t>Drukarka laserowa</t>
+  </si>
+  <si>
+    <t>677,00 zł</t>
+  </si>
+  <si>
+    <t>819,00 zł</t>
+  </si>
+  <si>
+    <t>pomorskie</t>
+  </si>
+  <si>
+    <t>1 385,00 zł</t>
+  </si>
+  <si>
+    <t>1 842,00 zł</t>
+  </si>
+  <si>
+    <t>Michał Jankowski</t>
+  </si>
+  <si>
+    <t>mazowieckie</t>
+  </si>
+  <si>
+    <t>Smart TV 55"</t>
+  </si>
+  <si>
+    <t>1 238,00 zł</t>
+  </si>
+  <si>
+    <t>1 411,00 zł</t>
+  </si>
+  <si>
+    <t>lubuskie</t>
+  </si>
+  <si>
+    <t>kwiecień</t>
+  </si>
+  <si>
+    <t>Płyta główna</t>
+  </si>
+  <si>
+    <t>651,00 zł</t>
+  </si>
+  <si>
+    <t>768,00 zł</t>
+  </si>
+  <si>
+    <t>Jan Kowalski</t>
+  </si>
+  <si>
+    <t>Konsola do gier</t>
+  </si>
+  <si>
+    <t>1 249,00 zł</t>
+  </si>
+  <si>
+    <t>Krzysztof Lewandowski</t>
+  </si>
+  <si>
+    <t>Smartphone 5G 128GB</t>
+  </si>
+  <si>
+    <t>518,00 zł</t>
+  </si>
+  <si>
+    <t>642,00 zł</t>
+  </si>
+  <si>
+    <t>1 228,00 zł</t>
+  </si>
+  <si>
+    <t>1 437,00 zł</t>
+  </si>
+  <si>
+    <t>Słuchawki bezprzewodowe</t>
+  </si>
+  <si>
+    <t>1 294,00 zł</t>
+  </si>
+  <si>
+    <t>1 618,00 zł</t>
+  </si>
+  <si>
+    <t>kujawsko-pomorskie</t>
+  </si>
+  <si>
+    <t>Karta graficzna RTX</t>
+  </si>
+  <si>
+    <t>1 319,00 zł</t>
+  </si>
+  <si>
+    <t>1 767,00 zł</t>
+  </si>
+  <si>
+    <t>Agnieszka Wojciechowska</t>
+  </si>
+  <si>
+    <t>572,00 zł</t>
+  </si>
+  <si>
+    <t>652,00 zł</t>
+  </si>
+  <si>
+    <t>1 010,00 zł</t>
+  </si>
+  <si>
+    <t>1 202,00 zł</t>
+  </si>
+  <si>
+    <t>Mikrofon studyjny</t>
+  </si>
+  <si>
+    <t>1 442,00 zł</t>
+  </si>
+  <si>
+    <t>Maria Dąbrowska</t>
+  </si>
+  <si>
+    <t>Smartwatch</t>
+  </si>
+  <si>
+    <t>1 321,00 zł</t>
+  </si>
+  <si>
+    <t>1 717,00 zł</t>
+  </si>
+  <si>
+    <t>Odtwarzacz DVD</t>
+  </si>
+  <si>
+    <t>938,00 zł</t>
+  </si>
+  <si>
+    <t>1 032,00 zł</t>
+  </si>
+  <si>
+    <t>1 067,00 zł</t>
+  </si>
+  <si>
+    <t>1 291,00 zł</t>
+  </si>
+  <si>
+    <t>1 030,00 zł</t>
+  </si>
+  <si>
+    <t>1 215,00 zł</t>
   </si>
   <si>
     <t>warmińsko-mazurskie</t>
   </si>
   <si>
-    <t>Marzec</t>
-  </si>
-  <si>
-    <t>Smartphone 5G 128GB</t>
-  </si>
-  <si>
-    <t>596,00 zł</t>
-  </si>
-  <si>
-    <t>781,00 zł</t>
-  </si>
-  <si>
-    <t>Tomasz Kamiński</t>
-  </si>
-  <si>
-    <t>lubuskie</t>
-  </si>
-  <si>
-    <t>Słuchawki bezprzewodowe</t>
-  </si>
-  <si>
-    <t>905,00 zł</t>
-  </si>
-  <si>
-    <t>1 068,00 zł</t>
-  </si>
-  <si>
-    <t>Andrzej Woźniak</t>
-  </si>
-  <si>
-    <t>zachodniopomorskie</t>
-  </si>
-  <si>
-    <t>Konsola do gier</t>
-  </si>
-  <si>
-    <t>1 276,00 zł</t>
-  </si>
-  <si>
-    <t>1 442,00 zł</t>
-  </si>
-  <si>
-    <t>kujawsko-pomorskie</t>
-  </si>
-  <si>
-    <t>Styczeń</t>
+    <t>1 344,00 zł</t>
+  </si>
+  <si>
+    <t>1 841,00 zł</t>
+  </si>
+  <si>
+    <t>Anna Nowak</t>
+  </si>
+  <si>
+    <t>Obudowa gamingowa</t>
+  </si>
+  <si>
+    <t>1 254,00 zł</t>
+  </si>
+  <si>
+    <t>1 480,00 zł</t>
+  </si>
+  <si>
+    <t>1 968,00 zł</t>
   </si>
   <si>
     <t>Tablet 10"</t>
   </si>
   <si>
-    <t>1 395,00 zł</t>
-  </si>
-  <si>
-    <t>1 646,00 zł</t>
-  </si>
-  <si>
-    <t>1 231,00 zł</t>
-  </si>
-  <si>
-    <t>1 391,00 zł</t>
-  </si>
-  <si>
-    <t>Anna Nowak</t>
-  </si>
-  <si>
-    <t>1 196,00 zł</t>
-  </si>
-  <si>
-    <t>1 447,00 zł</t>
-  </si>
-  <si>
-    <t>Marcin Zieliński</t>
-  </si>
-  <si>
-    <t>łódzkie</t>
-  </si>
-  <si>
-    <t>1 298,00 zł</t>
-  </si>
-  <si>
-    <t>1 584,00 zł</t>
-  </si>
-  <si>
-    <t>Monitor 24" 4K</t>
-  </si>
-  <si>
-    <t>1 119,00 zł</t>
-  </si>
-  <si>
-    <t>1 320,00 zł</t>
-  </si>
-  <si>
-    <t>Krzysztof Lewandowski</t>
-  </si>
-  <si>
-    <t>Pamięć RAM 16GB</t>
-  </si>
-  <si>
-    <t>648,00 zł</t>
-  </si>
-  <si>
-    <t>836,00 zł</t>
-  </si>
-  <si>
-    <t>Ewa Kowalczyk</t>
-  </si>
-  <si>
-    <t>dolnośląskie</t>
-  </si>
-  <si>
-    <t>Dysk SSD 1TB</t>
-  </si>
-  <si>
-    <t>1 168,00 zł</t>
-  </si>
-  <si>
-    <t>1 367,00 zł</t>
-  </si>
-  <si>
-    <t>Monika Krawczyk</t>
-  </si>
-  <si>
-    <t>podlaskie</t>
-  </si>
-  <si>
-    <t>Smartwatch</t>
-  </si>
-  <si>
-    <t>1 253,00 zł</t>
-  </si>
-  <si>
-    <t>1 579,00 zł</t>
-  </si>
-  <si>
-    <t>Katarzyna Mazur</t>
-  </si>
-  <si>
-    <t>małopolskie</t>
-  </si>
-  <si>
-    <t>Powerbank 20000mAh</t>
-  </si>
-  <si>
-    <t>1 490,00 zł</t>
-  </si>
-  <si>
-    <t>1 788,00 zł</t>
-  </si>
-  <si>
-    <t>mazowieckie</t>
-  </si>
-  <si>
-    <t>1 294,00 zł</t>
-  </si>
-  <si>
-    <t>1 566,00 zł</t>
-  </si>
-  <si>
-    <t>Michał Jankowski</t>
-  </si>
-  <si>
-    <t>wielkopolskie</t>
-  </si>
-  <si>
-    <t>Płyta główna</t>
-  </si>
-  <si>
-    <t>1 185,00 zł</t>
-  </si>
-  <si>
-    <t>1 375,00 zł</t>
-  </si>
-  <si>
-    <t>śląskie</t>
-  </si>
-  <si>
-    <t>Projektor multimedialny</t>
-  </si>
-  <si>
-    <t>1 183,00 zł</t>
-  </si>
-  <si>
-    <t>1 573,00 zł</t>
-  </si>
-  <si>
-    <t>Mikrofon studyjny</t>
-  </si>
-  <si>
-    <t>677,00 zł</t>
-  </si>
-  <si>
-    <t>873,00 zł</t>
-  </si>
-  <si>
-    <t>podkarpackie</t>
-  </si>
-  <si>
-    <t>Zasilacz 650W</t>
-  </si>
-  <si>
-    <t>1 063,00 zł</t>
-  </si>
-  <si>
-    <t>1 339,00 zł</t>
-  </si>
-  <si>
-    <t>Magdalena Szymańska</t>
-  </si>
-  <si>
-    <t>Obudowa gamingowa</t>
-  </si>
-  <si>
-    <t>638,00 zł</t>
-  </si>
-  <si>
-    <t>740,00 zł</t>
-  </si>
-  <si>
-    <t>Smart TV 55"</t>
-  </si>
-  <si>
-    <t>1 197,00 zł</t>
-  </si>
-  <si>
-    <t>1 341,00 zł</t>
-  </si>
-  <si>
-    <t>świętokrzyskie</t>
-  </si>
-  <si>
-    <t>1 200,00 zł</t>
-  </si>
-  <si>
-    <t>1 572,00 zł</t>
-  </si>
-  <si>
-    <t>Jan Kowalski</t>
-  </si>
-  <si>
-    <t>733,00 zł</t>
-  </si>
-  <si>
-    <t>975,00 zł</t>
-  </si>
-  <si>
-    <t>1 172,00 zł</t>
-  </si>
-  <si>
-    <t>1 594,00 zł</t>
-  </si>
-  <si>
-    <t>Głośnik Bluetooth</t>
-  </si>
-  <si>
-    <t>1 220,00 zł</t>
-  </si>
-  <si>
-    <t>1 598,00 zł</t>
-  </si>
-  <si>
-    <t>760,00 zł</t>
-  </si>
-  <si>
-    <t>980,00 zł</t>
-  </si>
-  <si>
-    <t>Kamera internetowa</t>
-  </si>
-  <si>
-    <t>573,00 zł</t>
-  </si>
-  <si>
-    <t>745,00 zł</t>
-  </si>
-  <si>
-    <t>Maria Dąbrowska</t>
-  </si>
-  <si>
-    <t>1 169,00 zł</t>
-  </si>
-  <si>
-    <t>1 286,00 zł</t>
-  </si>
-  <si>
-    <t>667,00 zł</t>
-  </si>
-  <si>
-    <t>lubelskie</t>
-  </si>
-  <si>
-    <t>537,00 zł</t>
-  </si>
-  <si>
-    <t>709,00 zł</t>
-  </si>
-  <si>
-    <t>Paweł Kwiatkowski</t>
-  </si>
-  <si>
-    <t>opolskie</t>
+    <t>622,00 zł</t>
+  </si>
+  <si>
+    <t>840,00 zł</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -1464,19 +1479,19 @@
         <v>19</v>
       </c>
       <c r="B17" s="3">
+        <v>2</v>
+      </c>
+      <c r="C17" s="3">
         <v>4</v>
       </c>
-      <c r="C17" s="3">
-        <v>5</v>
-      </c>
       <c r="D17" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E17" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G17" s="5"/>
     </row>
@@ -1488,16 +1503,16 @@
         <v>3</v>
       </c>
       <c r="C18" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" s="3">
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F18" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G18" s="5"/>
     </row>
@@ -1509,16 +1524,16 @@
         <v>6</v>
       </c>
       <c r="C19" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" s="3">
+        <v>6</v>
+      </c>
+      <c r="E19" s="3">
         <v>5</v>
       </c>
-      <c r="E19" s="3">
-        <v>2</v>
-      </c>
       <c r="F19" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G19" s="5"/>
     </row>
@@ -1527,19 +1542,19 @@
         <v>22</v>
       </c>
       <c r="B20" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C20" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20" s="3">
+        <v>4</v>
+      </c>
+      <c r="E20" s="3">
+        <v>5</v>
+      </c>
+      <c r="F20" s="3">
         <v>6</v>
-      </c>
-      <c r="E20" s="3">
-        <v>3</v>
-      </c>
-      <c r="F20" s="3">
-        <v>3</v>
       </c>
       <c r="G20" s="5"/>
     </row>
@@ -1548,16 +1563,16 @@
         <v>23</v>
       </c>
       <c r="B21" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C21" s="3">
+        <v>4</v>
+      </c>
+      <c r="D21" s="3">
+        <v>5</v>
+      </c>
+      <c r="E21" s="3">
         <v>3</v>
-      </c>
-      <c r="D21" s="3">
-        <v>6</v>
-      </c>
-      <c r="E21" s="3">
-        <v>2</v>
       </c>
       <c r="F21" s="3">
         <v>3</v>
@@ -1572,13 +1587,13 @@
         <v>2</v>
       </c>
       <c r="C22" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D22" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E22" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F22" s="3">
         <v>3</v>
@@ -1590,16 +1605,16 @@
         <v>25</v>
       </c>
       <c r="B23" s="3">
+        <v>3</v>
+      </c>
+      <c r="C23" s="3">
+        <v>2</v>
+      </c>
+      <c r="D23" s="3">
+        <v>3</v>
+      </c>
+      <c r="E23" s="3">
         <v>5</v>
-      </c>
-      <c r="C23" s="3">
-        <v>5</v>
-      </c>
-      <c r="D23" s="3">
-        <v>5</v>
-      </c>
-      <c r="E23" s="3">
-        <v>3</v>
       </c>
       <c r="F23" s="3">
         <v>3</v>
@@ -1611,19 +1626,19 @@
         <v>26</v>
       </c>
       <c r="B24" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C24" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E24" s="3">
         <v>5</v>
       </c>
       <c r="F24" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G24" s="5"/>
     </row>
@@ -1632,19 +1647,19 @@
         <v>27</v>
       </c>
       <c r="B25" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C25" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D25" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E25" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F25" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G25" s="5"/>
     </row>
@@ -1653,19 +1668,19 @@
         <v>28</v>
       </c>
       <c r="B26" s="3">
+        <v>6</v>
+      </c>
+      <c r="C26" s="3">
+        <v>3</v>
+      </c>
+      <c r="D26" s="3">
+        <v>5</v>
+      </c>
+      <c r="E26" s="3">
+        <v>3</v>
+      </c>
+      <c r="F26" s="3">
         <v>4</v>
-      </c>
-      <c r="C26" s="3">
-        <v>2</v>
-      </c>
-      <c r="D26" s="3">
-        <v>3</v>
-      </c>
-      <c r="E26" s="3">
-        <v>2</v>
-      </c>
-      <c r="F26" s="3">
-        <v>2</v>
       </c>
       <c r="G26" s="5"/>
     </row>
@@ -1674,19 +1689,19 @@
         <v>29</v>
       </c>
       <c r="B27" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C27" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" s="3">
         <v>2</v>
       </c>
       <c r="E27" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F27" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G27" s="5"/>
     </row>
@@ -1695,13 +1710,13 @@
         <v>30</v>
       </c>
       <c r="B28" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C28" s="3">
+        <v>6</v>
+      </c>
+      <c r="D28" s="3">
         <v>5</v>
-      </c>
-      <c r="D28" s="3">
-        <v>6</v>
       </c>
       <c r="E28" s="3">
         <v>6</v>
@@ -1829,7 +1844,7 @@
         <v>47</v>
       </c>
       <c r="D13" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E13" s="3"/>
     </row>
@@ -1844,7 +1859,7 @@
         <v>49</v>
       </c>
       <c r="D14" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" s="3"/>
     </row>
@@ -1859,7 +1874,7 @@
         <v>51</v>
       </c>
       <c r="D15" s="3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E15" s="3"/>
     </row>
@@ -1871,10 +1886,10 @@
         <v>52</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D16" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E16" s="3"/>
     </row>
@@ -1883,13 +1898,13 @@
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="D17" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E17" s="3"/>
     </row>
@@ -1898,13 +1913,13 @@
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D18" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E18" s="3"/>
     </row>
@@ -1913,7 +1928,7 @@
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E19" s="3"/>
     </row>
@@ -1948,7 +1963,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1973,27 +1988,27 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -2015,61 +2030,61 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C15" s="3">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C16" s="3">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C17" s="3">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C18" s="3">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C19" s="3">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D19" s="3"/>
     </row>
@@ -2077,7 +2092,7 @@
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D20" s="8"/>
     </row>
@@ -2089,7 +2104,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -2111,61 +2126,61 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C24" s="3">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D24" s="3"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C25" s="3">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="D25" s="3"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C26" s="3">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D26" s="3"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C27" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D27" s="3"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C28" s="3">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D28" s="3"/>
     </row>
@@ -2173,7 +2188,7 @@
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D29" s="8"/>
     </row>
@@ -2185,7 +2200,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -2207,73 +2222,73 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C33" s="3">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D33" s="3"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C34" s="3">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="D34" s="3"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C35" s="3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D35" s="3"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C36" s="3">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D36" s="3"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C37" s="3">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D37" s="3"/>
     </row>
     <row r="38" spans="1:4">
       <c r="C38" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D38" s="6"/>
     </row>
     <row r="40" spans="1:4">
       <c r="C40" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D40" s="7"/>
     </row>
@@ -2295,10 +2310,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A20" sqref="A20:L20"/>
+      <selection activeCell="A19" sqref="A19:L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2319,53 +2334,53 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>99</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>101</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>19</v>
@@ -2377,7 +2392,7 @@
         <v>22</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H11" s="10" t="s">
         <v>24</v>
@@ -2386,43 +2401,43 @@
         <v>20</v>
       </c>
       <c r="J11" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="L11" s="10" t="s">
         <v>103</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D12" s="3">
+        <v>3</v>
+      </c>
+      <c r="E12" s="3">
+        <v>5</v>
+      </c>
+      <c r="F12" s="3">
+        <v>6</v>
+      </c>
+      <c r="G12" s="3">
         <v>2</v>
       </c>
-      <c r="E12" s="3">
+      <c r="H12" s="3">
         <v>2</v>
       </c>
-      <c r="F12" s="3">
-        <v>5</v>
-      </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>4</v>
       </c>
-      <c r="H12" s="3">
-        <v>3</v>
-      </c>
-      <c r="I12" s="3">
-        <v>2</v>
-      </c>
       <c r="J12" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -2430,28 +2445,28 @@
     <row r="13" spans="1:12">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D13" s="3">
+        <v>2</v>
+      </c>
+      <c r="E13" s="3">
         <v>3</v>
       </c>
-      <c r="E13" s="3">
-        <v>5</v>
-      </c>
       <c r="F13" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G13" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H13" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I13" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J13" s="3">
         <v>4</v>
@@ -2462,31 +2477,31 @@
     <row r="14" spans="1:12">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D14" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E14" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F14" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G14" s="3">
         <v>3</v>
       </c>
       <c r="H14" s="3">
+        <v>6</v>
+      </c>
+      <c r="I14" s="3">
         <v>2</v>
       </c>
-      <c r="I14" s="3">
-        <v>5</v>
-      </c>
       <c r="J14" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -2494,31 +2509,31 @@
     <row r="15" spans="1:12">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D15" s="3">
+        <v>3</v>
+      </c>
+      <c r="E15" s="3">
+        <v>4</v>
+      </c>
+      <c r="F15" s="3">
+        <v>4</v>
+      </c>
+      <c r="G15" s="3">
         <v>2</v>
       </c>
-      <c r="E15" s="3">
-        <v>5</v>
-      </c>
-      <c r="F15" s="3">
-        <v>3</v>
-      </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>4</v>
-      </c>
-      <c r="H15" s="3">
-        <v>5</v>
       </c>
       <c r="I15" s="3">
         <v>2</v>
       </c>
       <c r="J15" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
@@ -2526,31 +2541,31 @@
     <row r="16" spans="1:12">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D16" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E16" s="3">
+        <v>3</v>
+      </c>
+      <c r="F16" s="3">
         <v>2</v>
       </c>
-      <c r="F16" s="3">
-        <v>3</v>
-      </c>
       <c r="G16" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H16" s="3">
         <v>2</v>
       </c>
       <c r="I16" s="3">
+        <v>2</v>
+      </c>
+      <c r="J16" s="3">
         <v>3</v>
-      </c>
-      <c r="J16" s="3">
-        <v>4</v>
       </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
@@ -2558,70 +2573,54 @@
     <row r="17" spans="1:12">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D17" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E17" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F17" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G17" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H17" s="3">
         <v>4</v>
       </c>
       <c r="I17" s="3">
+        <v>2</v>
+      </c>
+      <c r="J17" s="3">
         <v>4</v>
-      </c>
-      <c r="J17" s="3">
-        <v>6</v>
       </c>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D18" s="3">
-        <v>6</v>
-      </c>
-      <c r="E18" s="3">
-        <v>4</v>
-      </c>
-      <c r="F18" s="3">
-        <v>3</v>
-      </c>
-      <c r="G18" s="3">
-        <v>6</v>
-      </c>
-      <c r="H18" s="3">
-        <v>4</v>
-      </c>
-      <c r="I18" s="3">
-        <v>4</v>
-      </c>
-      <c r="J18" s="3">
-        <v>6</v>
-      </c>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
+      <c r="A18" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="11" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -2635,27 +2634,11 @@
       <c r="K19" s="11"/>
       <c r="L19" s="11"/>
     </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-    </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:K1"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="D20:L20"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="D19:L19"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2668,10 +2651,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A26" sqref="A26:B28"/>
+      <selection activeCell="A29" sqref="A29:B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2683,7 +2666,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="9" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2693,199 +2676,232 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="12" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B22" s="3" t="s">
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="B24" s="3" t="s">
         <v>165</v>
       </c>
+      <c r="C24" s="3" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="13" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
+      <c r="A25" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B25" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="13" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>168</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>169</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>170</v>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>171</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>172</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>173</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -2922,7 +2938,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="9" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2932,75 +2948,75 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="12" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3008,22 +3024,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -3031,22 +3047,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3054,22 +3070,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3077,22 +3093,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3100,22 +3116,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>210</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3123,22 +3139,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>196</v>
+        <v>220</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3146,22 +3162,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3169,22 +3185,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>195</v>
+        <v>230</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>190</v>
+        <v>231</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>219</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3192,22 +3208,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>200</v>
+        <v>239</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3215,22 +3231,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3238,22 +3254,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3261,22 +3277,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>189</v>
+        <v>225</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3284,22 +3300,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>195</v>
+        <v>252</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>204</v>
+        <v>256</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3307,22 +3323,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="E29" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="G29" s="3" t="s">
         <v>247</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3330,22 +3346,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="G30" s="3" t="s">
         <v>210</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3353,22 +3369,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>189</v>
+        <v>252</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>254</v>
+        <v>200</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>199</v>
+        <v>228</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3376,22 +3392,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3399,22 +3415,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3422,22 +3438,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>265</v>
+        <v>220</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3445,22 +3461,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>210</v>
+        <v>252</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>271</v>
+        <v>204</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3468,22 +3484,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>195</v>
+        <v>252</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>196</v>
+        <v>277</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3491,22 +3507,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>204</v>
+        <v>272</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3514,22 +3530,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>195</v>
+        <v>230</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>257</v>
+        <v>283</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>199</v>
+        <v>238</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3537,22 +3553,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>189</v>
+        <v>252</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>271</v>
+        <v>198</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3560,22 +3576,22 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>227</v>
+        <v>283</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>209</v>
+        <v>290</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3583,22 +3599,22 @@
         <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>284</v>
+        <v>260</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>209</v>
+        <v>251</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3606,22 +3622,22 @@
         <v>27</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>242</v>
+        <v>294</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -3629,22 +3645,22 @@
         <v>28</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>195</v>
+        <v>230</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>196</v>
+        <v>277</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>267</v>
+        <v>297</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>291</v>
+        <v>234</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -3652,67 +3668,67 @@
         <v>29</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>206</v>
+        <v>298</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>294</v>
+        <v>197</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>295</v>
+        <v>239</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="13" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/excel/collective/zestawy_dla_uczniow/zestaw_045.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_045.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="211">
   <si>
     <t>ZESTAW ZADAŃ NR 45 - CZĘŚĆ 1</t>
   </si>
@@ -118,21 +118,6 @@
     <t>ŚREDNIA UCZNIA:</t>
   </si>
   <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(B17:B28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(C17:C28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(D17:D28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(E17:E28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(F17:F28);".";",")</t>
-  </si>
-  <si>
     <t>ZESTAW ZADAŃ NR 45 - CZĘŚĆ 2: ZAKUPY</t>
   </si>
   <si>
@@ -163,30 +148,18 @@
     <t>Ołówek HB</t>
   </si>
   <si>
-    <t>1,50</t>
-  </si>
-  <si>
     <t>Linijka 30 cm</t>
   </si>
   <si>
-    <t>4,10</t>
-  </si>
-  <si>
     <t>Długopis niebieski</t>
   </si>
   <si>
-    <t>1,90</t>
-  </si>
-  <si>
     <t>Gumka do mazania</t>
   </si>
   <si>
     <t>Zeszyt 60 kartek</t>
   </si>
   <si>
-    <t>5,20</t>
-  </si>
-  <si>
     <t>Pędzelek</t>
   </si>
   <si>
@@ -214,75 +187,30 @@
     <t>Zeszyt</t>
   </si>
   <si>
-    <t>24,37</t>
-  </si>
-  <si>
     <t>Ołówek</t>
   </si>
   <si>
-    <t>30,27</t>
-  </si>
-  <si>
     <t>Długopis</t>
   </si>
   <si>
-    <t>2,55</t>
-  </si>
-  <si>
     <t>Linijka</t>
   </si>
   <si>
-    <t>15,24</t>
-  </si>
-  <si>
     <t>Gumka</t>
   </si>
   <si>
-    <t>22,25</t>
-  </si>
-  <si>
     <t>Razem Styczeń:</t>
   </si>
   <si>
     <t>Luty:</t>
   </si>
   <si>
-    <t>5,35</t>
-  </si>
-  <si>
-    <t>22,73</t>
-  </si>
-  <si>
-    <t>9,68</t>
-  </si>
-  <si>
-    <t>23,36</t>
-  </si>
-  <si>
-    <t>28,41</t>
-  </si>
-  <si>
     <t>Razem Luty:</t>
   </si>
   <si>
     <t>Marzec:</t>
   </si>
   <si>
-    <t>12,24</t>
-  </si>
-  <si>
-    <t>29,92</t>
-  </si>
-  <si>
-    <t>3,55</t>
-  </si>
-  <si>
-    <t>27,61</t>
-  </si>
-  <si>
-    <t>3,85</t>
-  </si>
-  <si>
     <t>Razem Marzec:</t>
   </si>
   <si>
@@ -301,7 +229,7 @@
     <t>2. Uzupełnij kolumnę LP (kolejne numery).</t>
   </si>
   <si>
-    <t>3. Oblicz średnią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
+    <t>3. Oblicz średią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
   </si>
   <si>
     <t>4. Jeżeli średnia ucznia jest większa lub równa 4,5, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
@@ -406,132 +334,87 @@
     <t>04.05.1990</t>
   </si>
   <si>
-    <t>13 794,00 zł</t>
-  </si>
-  <si>
     <t>Oliwia Rogalska</t>
   </si>
   <si>
     <t>14.07.1986</t>
   </si>
   <si>
-    <t>10 098,00 zł</t>
-  </si>
-  <si>
     <t>Jakub Kaczmarek</t>
   </si>
   <si>
     <t>21.01.1980</t>
   </si>
   <si>
-    <t>8 884,00 zł</t>
-  </si>
-  <si>
     <t>Hanna Borkowska</t>
   </si>
   <si>
     <t>05.09.1983</t>
   </si>
   <si>
-    <t>8 909,00 zł</t>
-  </si>
-  <si>
     <t>Julia Czarnecka</t>
   </si>
   <si>
     <t>25.12.1985</t>
   </si>
   <si>
-    <t>9 091,00 zł</t>
-  </si>
-  <si>
     <t>Amelia Bednarska</t>
   </si>
   <si>
     <t>09.06.1998</t>
   </si>
   <si>
-    <t>6 991,00 zł</t>
-  </si>
-  <si>
     <t>Anna Sikorska</t>
   </si>
   <si>
     <t>26.02.2003</t>
   </si>
   <si>
-    <t>6 564,00 zł</t>
-  </si>
-  <si>
     <t>24.11.2003</t>
   </si>
   <si>
-    <t>11 004,00 zł</t>
-  </si>
-  <si>
     <t>Kacper Grabowski</t>
   </si>
   <si>
     <t>15.06.2003</t>
   </si>
   <si>
-    <t>9 936,00 zł</t>
-  </si>
-  <si>
     <t>Natalia Sikorska</t>
   </si>
   <si>
     <t>19.06.1975</t>
   </si>
   <si>
-    <t>12 993,00 zł</t>
-  </si>
-  <si>
     <t>Zuzanna Olszewska</t>
   </si>
   <si>
     <t>10.06.2004</t>
   </si>
   <si>
-    <t>7 206,00 zł</t>
-  </si>
-  <si>
     <t>Wojciech Grabowski</t>
   </si>
   <si>
     <t>10.04.1975</t>
   </si>
   <si>
-    <t>8 093,00 zł</t>
-  </si>
-  <si>
     <t>Emilia Wilk</t>
   </si>
   <si>
     <t>24.01.1992</t>
   </si>
   <si>
-    <t>8 104,00 zł</t>
-  </si>
-  <si>
     <t>Natalia Urbaniak</t>
   </si>
   <si>
     <t>23.06.1996</t>
   </si>
   <si>
-    <t>4 483,00 zł</t>
-  </si>
-  <si>
     <t>Maja Czarnecka</t>
   </si>
   <si>
     <t>19.12.2004</t>
   </si>
   <si>
-    <t>5 639,00 zł</t>
-  </si>
-  <si>
     <t>OBLICZENIA:</t>
   </si>
   <si>
@@ -544,9 +427,6 @@
     <t>Najmniejsze zarobki:</t>
   </si>
   <si>
-    <t>=...</t>
-  </si>
-  <si>
     <t>ZADANIE 6 - ANALIZA SPRZEDAŻY</t>
   </si>
   <si>
@@ -607,12 +487,6 @@
     <t>Powerbank 20000mAh</t>
   </si>
   <si>
-    <t>1 148,00 zł</t>
-  </si>
-  <si>
-    <t>1 309,00 zł</t>
-  </si>
-  <si>
     <t>Tomasz Kamiński</t>
   </si>
   <si>
@@ -625,12 +499,6 @@
     <t>Zasilacz 650W</t>
   </si>
   <si>
-    <t>1 317,00 zł</t>
-  </si>
-  <si>
-    <t>1 620,00 zł</t>
-  </si>
-  <si>
     <t>Monika Krawczyk</t>
   </si>
   <si>
@@ -643,12 +511,6 @@
     <t>Router Wi-Fi 6</t>
   </si>
   <si>
-    <t>1 114,00 zł</t>
-  </si>
-  <si>
-    <t>1 404,00 zł</t>
-  </si>
-  <si>
     <t>Ewa Kowalczyk</t>
   </si>
   <si>
@@ -658,12 +520,6 @@
     <t>Pamięć RAM 16GB</t>
   </si>
   <si>
-    <t>1 127,00 zł</t>
-  </si>
-  <si>
-    <t>1 341,00 zł</t>
-  </si>
-  <si>
     <t>Marcin Zieliński</t>
   </si>
   <si>
@@ -673,24 +529,12 @@
     <t>Głośnik Bluetooth</t>
   </si>
   <si>
-    <t>527,00 zł</t>
-  </si>
-  <si>
-    <t>601,00 zł</t>
-  </si>
-  <si>
     <t>Andrzej Woźniak</t>
   </si>
   <si>
     <t>Kamera internetowa</t>
   </si>
   <si>
-    <t>748,00 zł</t>
-  </si>
-  <si>
-    <t>860,00 zł</t>
-  </si>
-  <si>
     <t>Barbara Kozłowska</t>
   </si>
   <si>
@@ -700,12 +544,6 @@
     <t>styczeń</t>
   </si>
   <si>
-    <t>1 184,00 zł</t>
-  </si>
-  <si>
-    <t>1 563,00 zł</t>
-  </si>
-  <si>
     <t>Paweł Kwiatkowski</t>
   </si>
   <si>
@@ -718,24 +556,12 @@
     <t>Monitor 24" 4K</t>
   </si>
   <si>
-    <t>1 216,00 zł</t>
-  </si>
-  <si>
-    <t>1 374,00 zł</t>
-  </si>
-  <si>
     <t>lubelskie</t>
   </si>
   <si>
     <t>Procesor i5</t>
   </si>
   <si>
-    <t>1 247,00 zł</t>
-  </si>
-  <si>
-    <t>1 721,00 zł</t>
-  </si>
-  <si>
     <t>Katarzyna Mazur</t>
   </si>
   <si>
@@ -745,21 +571,9 @@
     <t>Drukarka laserowa</t>
   </si>
   <si>
-    <t>677,00 zł</t>
-  </si>
-  <si>
-    <t>819,00 zł</t>
-  </si>
-  <si>
     <t>pomorskie</t>
   </si>
   <si>
-    <t>1 385,00 zł</t>
-  </si>
-  <si>
-    <t>1 842,00 zł</t>
-  </si>
-  <si>
     <t>Michał Jankowski</t>
   </si>
   <si>
@@ -769,12 +583,6 @@
     <t>Smart TV 55"</t>
   </si>
   <si>
-    <t>1 238,00 zł</t>
-  </si>
-  <si>
-    <t>1 411,00 zł</t>
-  </si>
-  <si>
     <t>lubuskie</t>
   </si>
   <si>
@@ -784,145 +592,52 @@
     <t>Płyta główna</t>
   </si>
   <si>
-    <t>651,00 zł</t>
-  </si>
-  <si>
-    <t>768,00 zł</t>
-  </si>
-  <si>
     <t>Jan Kowalski</t>
   </si>
   <si>
     <t>Konsola do gier</t>
   </si>
   <si>
-    <t>1 249,00 zł</t>
-  </si>
-  <si>
     <t>Krzysztof Lewandowski</t>
   </si>
   <si>
     <t>Smartphone 5G 128GB</t>
   </si>
   <si>
-    <t>518,00 zł</t>
-  </si>
-  <si>
-    <t>642,00 zł</t>
-  </si>
-  <si>
-    <t>1 228,00 zł</t>
-  </si>
-  <si>
-    <t>1 437,00 zł</t>
-  </si>
-  <si>
     <t>Słuchawki bezprzewodowe</t>
   </si>
   <si>
-    <t>1 294,00 zł</t>
-  </si>
-  <si>
-    <t>1 618,00 zł</t>
-  </si>
-  <si>
     <t>kujawsko-pomorskie</t>
   </si>
   <si>
     <t>Karta graficzna RTX</t>
   </si>
   <si>
-    <t>1 319,00 zł</t>
-  </si>
-  <si>
-    <t>1 767,00 zł</t>
-  </si>
-  <si>
     <t>Agnieszka Wojciechowska</t>
   </si>
   <si>
-    <t>572,00 zł</t>
-  </si>
-  <si>
-    <t>652,00 zł</t>
-  </si>
-  <si>
-    <t>1 010,00 zł</t>
-  </si>
-  <si>
-    <t>1 202,00 zł</t>
-  </si>
-  <si>
     <t>Mikrofon studyjny</t>
   </si>
   <si>
-    <t>1 442,00 zł</t>
-  </si>
-  <si>
     <t>Maria Dąbrowska</t>
   </si>
   <si>
     <t>Smartwatch</t>
   </si>
   <si>
-    <t>1 321,00 zł</t>
-  </si>
-  <si>
-    <t>1 717,00 zł</t>
-  </si>
-  <si>
     <t>Odtwarzacz DVD</t>
   </si>
   <si>
-    <t>938,00 zł</t>
-  </si>
-  <si>
-    <t>1 032,00 zł</t>
-  </si>
-  <si>
-    <t>1 067,00 zł</t>
-  </si>
-  <si>
-    <t>1 291,00 zł</t>
-  </si>
-  <si>
-    <t>1 030,00 zł</t>
-  </si>
-  <si>
-    <t>1 215,00 zł</t>
-  </si>
-  <si>
     <t>warmińsko-mazurskie</t>
   </si>
   <si>
-    <t>1 344,00 zł</t>
-  </si>
-  <si>
-    <t>1 841,00 zł</t>
-  </si>
-  <si>
     <t>Anna Nowak</t>
   </si>
   <si>
     <t>Obudowa gamingowa</t>
   </si>
   <si>
-    <t>1 254,00 zł</t>
-  </si>
-  <si>
-    <t>1 480,00 zł</t>
-  </si>
-  <si>
-    <t>1 968,00 zł</t>
-  </si>
-  <si>
     <t>Tablet 10"</t>
-  </si>
-  <si>
-    <t>622,00 zł</t>
-  </si>
-  <si>
-    <t>840,00 zł</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -944,7 +659,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00&quot; zł&quot;"/>
+  </numFmts>
   <fonts count="5">
     <font>
       <b val="0"/>
@@ -1001,14 +718,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFD9EAD3"/>
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FFFFF2CC"/>
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFD9EAD3"/>
       </patternFill>
     </fill>
     <fill>
@@ -1019,8 +736,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -1051,30 +768,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" quotePrefix="1" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="5" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" quotePrefix="1" numFmtId="0" fillId="5" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1377,7 +1095,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="A16" sqref="A16:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1452,25 +1170,25 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1493,7 +1211,7 @@
       <c r="F17" s="3">
         <v>6</v>
       </c>
-      <c r="G17" s="5"/>
+      <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="3" t="s">
@@ -1514,7 +1232,7 @@
       <c r="F18" s="3">
         <v>5</v>
       </c>
-      <c r="G18" s="5"/>
+      <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="3" t="s">
@@ -1535,7 +1253,7 @@
       <c r="F19" s="3">
         <v>6</v>
       </c>
-      <c r="G19" s="5"/>
+      <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="3" t="s">
@@ -1556,7 +1274,7 @@
       <c r="F20" s="3">
         <v>6</v>
       </c>
-      <c r="G20" s="5"/>
+      <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="3" t="s">
@@ -1577,7 +1295,7 @@
       <c r="F21" s="3">
         <v>3</v>
       </c>
-      <c r="G21" s="5"/>
+      <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="3" t="s">
@@ -1598,7 +1316,7 @@
       <c r="F22" s="3">
         <v>3</v>
       </c>
-      <c r="G22" s="5"/>
+      <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="3" t="s">
@@ -1619,7 +1337,7 @@
       <c r="F23" s="3">
         <v>3</v>
       </c>
-      <c r="G23" s="5"/>
+      <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="3" t="s">
@@ -1640,7 +1358,7 @@
       <c r="F24" s="3">
         <v>6</v>
       </c>
-      <c r="G24" s="5"/>
+      <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="3" t="s">
@@ -1661,7 +1379,7 @@
       <c r="F25" s="3">
         <v>6</v>
       </c>
-      <c r="G25" s="5"/>
+      <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="3" t="s">
@@ -1682,7 +1400,7 @@
       <c r="F26" s="3">
         <v>4</v>
       </c>
-      <c r="G26" s="5"/>
+      <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="3" t="s">
@@ -1703,7 +1421,7 @@
       <c r="F27" s="3">
         <v>6</v>
       </c>
-      <c r="G27" s="5"/>
+      <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="3" t="s">
@@ -1724,27 +1442,17 @@
       <c r="F28" s="3">
         <v>3</v>
       </c>
-      <c r="G28" s="5"/>
+      <c r="G28" s="4"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1778,7 +1486,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1798,7 +1506,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1808,29 +1516,29 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1838,99 +1546,99 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
+      </c>
+      <c r="C13" s="7">
+        <v>1.5</v>
       </c>
       <c r="D13" s="3">
         <v>2</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3">
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
+      </c>
+      <c r="C14" s="7">
+        <v>4.1</v>
       </c>
       <c r="D14" s="3">
         <v>10</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3">
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="C15" s="7">
+        <v>1.9</v>
       </c>
       <c r="D15" s="3">
         <v>1</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3">
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
+      </c>
+      <c r="C16" s="7">
+        <v>1.5</v>
       </c>
       <c r="D16" s="3">
         <v>7</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3">
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>54</v>
+        <v>45</v>
+      </c>
+      <c r="C17" s="7">
+        <v>5.2</v>
       </c>
       <c r="D17" s="3">
         <v>4</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3">
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
+      </c>
+      <c r="C18" s="7">
+        <v>5.2</v>
       </c>
       <c r="D18" s="3">
         <v>5</v>
       </c>
-      <c r="E18" s="3"/>
+      <c r="E18" s="8"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E19" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="E19" s="8"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1963,7 +1671,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1988,113 +1696,113 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="8" t="s">
-        <v>62</v>
+      <c r="A13" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>45</v>
+      <c r="A14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>64</v>
+        <v>54</v>
+      </c>
+      <c r="B15" s="7">
+        <v>24.37</v>
       </c>
       <c r="C15" s="3">
         <v>29</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>66</v>
+        <v>55</v>
+      </c>
+      <c r="B16" s="7">
+        <v>30.27</v>
       </c>
       <c r="C16" s="3">
         <v>32</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>68</v>
+        <v>56</v>
+      </c>
+      <c r="B17" s="7">
+        <v>2.55</v>
       </c>
       <c r="C17" s="3">
         <v>20</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>70</v>
+        <v>57</v>
+      </c>
+      <c r="B18" s="7">
+        <v>15.24</v>
       </c>
       <c r="C18" s="3">
         <v>44</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="8"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>72</v>
+        <v>58</v>
+      </c>
+      <c r="B19" s="7">
+        <v>22.25</v>
       </c>
       <c r="C19" s="3">
         <v>46</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" s="8"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D20" s="8"/>
+      <c r="C20" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="14"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3"/>
@@ -2103,94 +1811,94 @@
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="8" t="s">
-        <v>74</v>
+      <c r="A22" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>45</v>
+      <c r="A23" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>75</v>
+        <v>54</v>
+      </c>
+      <c r="B24" s="7">
+        <v>5.35</v>
       </c>
       <c r="C24" s="3">
         <v>42</v>
       </c>
-      <c r="D24" s="3"/>
+      <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>76</v>
+        <v>55</v>
+      </c>
+      <c r="B25" s="7">
+        <v>22.73</v>
       </c>
       <c r="C25" s="3">
         <v>47</v>
       </c>
-      <c r="D25" s="3"/>
+      <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>77</v>
+        <v>56</v>
+      </c>
+      <c r="B26" s="7">
+        <v>9.68</v>
       </c>
       <c r="C26" s="3">
         <v>20</v>
       </c>
-      <c r="D26" s="3"/>
+      <c r="D26" s="8"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>78</v>
+        <v>57</v>
+      </c>
+      <c r="B27" s="7">
+        <v>23.36</v>
       </c>
       <c r="C27" s="3">
         <v>8</v>
       </c>
-      <c r="D27" s="3"/>
+      <c r="D27" s="8"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>79</v>
+        <v>58</v>
+      </c>
+      <c r="B28" s="7">
+        <v>28.41</v>
       </c>
       <c r="C28" s="3">
         <v>6</v>
       </c>
-      <c r="D28" s="3"/>
+      <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="D29" s="8"/>
+      <c r="C29" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="14"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3"/>
@@ -2199,98 +1907,98 @@
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="8" t="s">
-        <v>81</v>
+      <c r="A31" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>45</v>
+      <c r="A32" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>82</v>
+        <v>54</v>
+      </c>
+      <c r="B33" s="7">
+        <v>12.24</v>
       </c>
       <c r="C33" s="3">
         <v>12</v>
       </c>
-      <c r="D33" s="3"/>
+      <c r="D33" s="8"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>83</v>
+        <v>55</v>
+      </c>
+      <c r="B34" s="7">
+        <v>29.92</v>
       </c>
       <c r="C34" s="3">
         <v>46</v>
       </c>
-      <c r="D34" s="3"/>
+      <c r="D34" s="8"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>84</v>
+        <v>56</v>
+      </c>
+      <c r="B35" s="7">
+        <v>3.55</v>
       </c>
       <c r="C35" s="3">
         <v>5</v>
       </c>
-      <c r="D35" s="3"/>
+      <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>85</v>
+        <v>57</v>
+      </c>
+      <c r="B36" s="7">
+        <v>27.61</v>
       </c>
       <c r="C36" s="3">
         <v>19</v>
       </c>
-      <c r="D36" s="3"/>
+      <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>86</v>
+        <v>58</v>
+      </c>
+      <c r="B37" s="7">
+        <v>3.85</v>
       </c>
       <c r="C37" s="3">
         <v>25</v>
       </c>
-      <c r="D37" s="3"/>
+      <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="C38" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D38" s="6"/>
+      <c r="C38" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" s="11"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="C40" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D40" s="7"/>
+      <c r="C40" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" s="12"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2313,7 +2021,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A19" sqref="A19:L19"/>
+      <selection activeCell="A11" sqref="A11:L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2333,90 +2041,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="9" t="s">
-        <v>89</v>
+      <c r="A1" s="15" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="D11" s="10" t="s">
+      <c r="A11" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="H11" s="10" t="s">
+      <c r="G11" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>103</v>
+      <c r="J11" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="3"/>
+      <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="D12" s="3">
         <v>3</v>
@@ -2439,16 +2147,16 @@
       <c r="J12" s="3">
         <v>4</v>
       </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="3"/>
+      <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="D13" s="3">
         <v>2</v>
@@ -2471,16 +2179,16 @@
       <c r="J13" s="3">
         <v>4</v>
       </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="3"/>
+      <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="D14" s="3">
         <v>6</v>
@@ -2503,16 +2211,16 @@
       <c r="J14" s="3">
         <v>2</v>
       </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="3"/>
+      <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="D15" s="3">
         <v>3</v>
@@ -2535,16 +2243,16 @@
       <c r="J15" s="3">
         <v>5</v>
       </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="3"/>
+      <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="D16" s="3">
         <v>4</v>
@@ -2567,16 +2275,16 @@
       <c r="J16" s="3">
         <v>3</v>
       </c>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="3"/>
+      <c r="A17" s="4"/>
       <c r="B17" s="3" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="D17" s="3">
         <v>6</v>
@@ -2599,40 +2307,40 @@
       <c r="J17" s="3">
         <v>4</v>
       </c>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
+      <c r="A18" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
+      <c r="A19" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2665,244 +2373,238 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="9" t="s">
-        <v>117</v>
+      <c r="A1" s="15" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>125</v>
+      <c r="A10" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>128</v>
+        <v>103</v>
+      </c>
+      <c r="C11" s="7">
+        <v>13794</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>131</v>
+        <v>105</v>
+      </c>
+      <c r="C12" s="7">
+        <v>10098</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>134</v>
+        <v>107</v>
+      </c>
+      <c r="C13" s="7">
+        <v>8884</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>137</v>
+        <v>109</v>
+      </c>
+      <c r="C14" s="7">
+        <v>8909</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>138</v>
+        <v>110</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>140</v>
+        <v>111</v>
+      </c>
+      <c r="C15" s="7">
+        <v>9091</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>143</v>
+        <v>113</v>
+      </c>
+      <c r="C16" s="7">
+        <v>6991</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>146</v>
+        <v>115</v>
+      </c>
+      <c r="C17" s="7">
+        <v>6564</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>148</v>
+        <v>116</v>
+      </c>
+      <c r="C18" s="7">
+        <v>11004</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>151</v>
+        <v>118</v>
+      </c>
+      <c r="C19" s="7">
+        <v>9936</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>152</v>
+        <v>119</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>154</v>
+        <v>120</v>
+      </c>
+      <c r="C20" s="7">
+        <v>12993</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>157</v>
+        <v>122</v>
+      </c>
+      <c r="C21" s="7">
+        <v>7206</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>158</v>
+        <v>123</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>160</v>
+        <v>124</v>
+      </c>
+      <c r="C22" s="7">
+        <v>8093</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>161</v>
+        <v>125</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>163</v>
+        <v>126</v>
+      </c>
+      <c r="C23" s="7">
+        <v>8104</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>166</v>
+        <v>128</v>
+      </c>
+      <c r="C24" s="7">
+        <v>4483</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>167</v>
+        <v>129</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>169</v>
+        <v>130</v>
+      </c>
+      <c r="C25" s="7">
+        <v>5639</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="13" t="s">
-        <v>170</v>
+      <c r="A28" s="17" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>171</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>174</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="B29" s="2"/>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>172</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>174</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="B30" s="6"/>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>173</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>174</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="B31" s="6"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2937,86 +2639,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="9" t="s">
-        <v>175</v>
+      <c r="A1" s="15" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>176</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>177</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>178</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>179</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>180</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>181</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>182</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>183</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>184</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>185</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>192</v>
+      <c r="A15" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3024,22 +2726,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>193</v>
+        <v>153</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>196</v>
+        <v>154</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1148</v>
+      </c>
+      <c r="E16" s="7">
+        <v>1309</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>197</v>
+        <v>155</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>198</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -3047,22 +2749,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>199</v>
+        <v>157</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>202</v>
+        <v>158</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1317</v>
+      </c>
+      <c r="E17" s="7">
+        <v>1620</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>203</v>
+        <v>159</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>204</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3070,22 +2772,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>205</v>
+        <v>161</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>208</v>
+        <v>162</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1114</v>
+      </c>
+      <c r="E18" s="7">
+        <v>1404</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>209</v>
+        <v>163</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>210</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3093,22 +2795,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>205</v>
+        <v>161</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>213</v>
+        <v>165</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1127</v>
+      </c>
+      <c r="E19" s="7">
+        <v>1341</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>214</v>
+        <v>166</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>215</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3116,22 +2818,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>193</v>
+        <v>153</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>218</v>
+        <v>168</v>
+      </c>
+      <c r="D20" s="7">
+        <v>527</v>
+      </c>
+      <c r="E20" s="7">
+        <v>601</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>219</v>
+        <v>169</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>210</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3139,22 +2841,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>199</v>
+        <v>157</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>222</v>
+        <v>170</v>
+      </c>
+      <c r="D21" s="7">
+        <v>748</v>
+      </c>
+      <c r="E21" s="7">
+        <v>860</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>223</v>
+        <v>171</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>224</v>
+        <v>172</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3162,22 +2864,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>225</v>
+        <v>173</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>227</v>
+        <v>158</v>
+      </c>
+      <c r="D22" s="7">
+        <v>1184</v>
+      </c>
+      <c r="E22" s="7">
+        <v>1563</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>228</v>
+        <v>174</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>229</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3185,22 +2887,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>230</v>
+        <v>176</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>233</v>
+        <v>177</v>
+      </c>
+      <c r="D23" s="7">
+        <v>1216</v>
+      </c>
+      <c r="E23" s="7">
+        <v>1374</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>219</v>
+        <v>169</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>234</v>
+        <v>178</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3208,22 +2910,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>199</v>
+        <v>157</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>237</v>
+        <v>179</v>
+      </c>
+      <c r="D24" s="7">
+        <v>1247</v>
+      </c>
+      <c r="E24" s="7">
+        <v>1721</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>239</v>
+        <v>181</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3231,22 +2933,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>225</v>
+        <v>173</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>242</v>
+        <v>182</v>
+      </c>
+      <c r="D25" s="7">
+        <v>677</v>
+      </c>
+      <c r="E25" s="7">
+        <v>819</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>219</v>
+        <v>169</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>243</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3254,22 +2956,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>193</v>
+        <v>153</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>245</v>
+        <v>177</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1385</v>
+      </c>
+      <c r="E26" s="7">
+        <v>1842</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>246</v>
+        <v>184</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>247</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3277,22 +2979,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>225</v>
+        <v>173</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>250</v>
+        <v>186</v>
+      </c>
+      <c r="D27" s="7">
+        <v>1238</v>
+      </c>
+      <c r="E27" s="7">
+        <v>1411</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>228</v>
+        <v>174</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>251</v>
+        <v>187</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3300,22 +3002,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>252</v>
+        <v>188</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>255</v>
+        <v>189</v>
+      </c>
+      <c r="D28" s="7">
+        <v>651</v>
+      </c>
+      <c r="E28" s="7">
+        <v>768</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>256</v>
+        <v>190</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>234</v>
+        <v>178</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3323,22 +3025,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>205</v>
+        <v>161</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>233</v>
+        <v>191</v>
+      </c>
+      <c r="D29" s="7">
+        <v>1249</v>
+      </c>
+      <c r="E29" s="7">
+        <v>1374</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>259</v>
+        <v>192</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>247</v>
+        <v>185</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3346,22 +3048,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>225</v>
+        <v>173</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>262</v>
+        <v>193</v>
+      </c>
+      <c r="D30" s="7">
+        <v>518</v>
+      </c>
+      <c r="E30" s="7">
+        <v>642</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>210</v>
+        <v>164</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3369,22 +3071,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>252</v>
+        <v>188</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>264</v>
+        <v>158</v>
+      </c>
+      <c r="D31" s="7">
+        <v>1228</v>
+      </c>
+      <c r="E31" s="7">
+        <v>1437</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>228</v>
+        <v>174</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>224</v>
+        <v>172</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3392,22 +3094,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>225</v>
+        <v>173</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>267</v>
+        <v>194</v>
+      </c>
+      <c r="D32" s="7">
+        <v>1294</v>
+      </c>
+      <c r="E32" s="7">
+        <v>1618</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>256</v>
+        <v>190</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>268</v>
+        <v>195</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3415,22 +3117,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>199</v>
+        <v>157</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>271</v>
+        <v>196</v>
+      </c>
+      <c r="D33" s="7">
+        <v>1319</v>
+      </c>
+      <c r="E33" s="7">
+        <v>1767</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>272</v>
+        <v>197</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>268</v>
+        <v>195</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3438,22 +3140,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>225</v>
+        <v>173</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>274</v>
+        <v>170</v>
+      </c>
+      <c r="D34" s="7">
+        <v>572</v>
+      </c>
+      <c r="E34" s="7">
+        <v>652</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>228</v>
+        <v>174</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>234</v>
+        <v>178</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3461,22 +3163,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>252</v>
+        <v>188</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>276</v>
+        <v>194</v>
+      </c>
+      <c r="D35" s="7">
+        <v>1010</v>
+      </c>
+      <c r="E35" s="7">
+        <v>1202</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>214</v>
+        <v>166</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>204</v>
+        <v>160</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3484,22 +3186,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>252</v>
+        <v>188</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>278</v>
+        <v>198</v>
+      </c>
+      <c r="D36" s="7">
+        <v>1202</v>
+      </c>
+      <c r="E36" s="7">
+        <v>1442</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>279</v>
+        <v>199</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>224</v>
+        <v>172</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3507,22 +3209,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>193</v>
+        <v>153</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>282</v>
+        <v>200</v>
+      </c>
+      <c r="D37" s="7">
+        <v>1321</v>
+      </c>
+      <c r="E37" s="7">
+        <v>1717</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>272</v>
+        <v>197</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>224</v>
+        <v>172</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3530,22 +3232,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>230</v>
+        <v>176</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>285</v>
+        <v>201</v>
+      </c>
+      <c r="D38" s="7">
+        <v>938</v>
+      </c>
+      <c r="E38" s="7">
+        <v>1032</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>234</v>
+        <v>178</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3553,22 +3255,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>252</v>
+        <v>188</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>287</v>
+        <v>193</v>
+      </c>
+      <c r="D39" s="7">
+        <v>1067</v>
+      </c>
+      <c r="E39" s="7">
+        <v>1291</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>197</v>
+        <v>155</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>198</v>
+        <v>156</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3576,22 +3278,22 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>193</v>
+        <v>153</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>289</v>
+        <v>201</v>
+      </c>
+      <c r="D40" s="7">
+        <v>1030</v>
+      </c>
+      <c r="E40" s="7">
+        <v>1215</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>209</v>
+        <v>163</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>290</v>
+        <v>202</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3599,22 +3301,22 @@
         <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>199</v>
+        <v>157</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>292</v>
+        <v>193</v>
+      </c>
+      <c r="D41" s="7">
+        <v>1344</v>
+      </c>
+      <c r="E41" s="7">
+        <v>1841</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>293</v>
+        <v>203</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>251</v>
+        <v>187</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3622,22 +3324,22 @@
         <v>27</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>199</v>
+        <v>157</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>278</v>
+        <v>204</v>
+      </c>
+      <c r="D42" s="7">
+        <v>1254</v>
+      </c>
+      <c r="E42" s="7">
+        <v>1442</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>203</v>
+        <v>159</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>234</v>
+        <v>178</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -3645,22 +3347,22 @@
         <v>28</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>230</v>
+        <v>176</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>297</v>
+        <v>198</v>
+      </c>
+      <c r="D43" s="7">
+        <v>1480</v>
+      </c>
+      <c r="E43" s="7">
+        <v>1968</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>234</v>
+        <v>178</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -3668,68 +3370,58 @@
         <v>29</v>
       </c>
       <c r="B44" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="C44" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>300</v>
+      <c r="D44" s="7">
+        <v>622</v>
+      </c>
+      <c r="E44" s="7">
+        <v>840</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>197</v>
+        <v>155</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>239</v>
+        <v>181</v>
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="13" t="s">
-        <v>170</v>
+      <c r="A47" s="17" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>301</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>174</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="B48" s="6"/>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>302</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>174</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="B49" s="6"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>303</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>174</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="B50" s="6"/>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>304</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>174</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="B51" s="6"/>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>305</v>
-      </c>
-      <c r="B52" s="14" t="s">
-        <v>174</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="B52" s="6"/>
     </row>
   </sheetData>
   <mergeCells>

--- a/excel/collective/zestawy_dla_uczniow/zestaw_045.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_045.xlsx
@@ -12,7 +12,8 @@
     <sheet name="Zadanie 3 - Sprzedaż" sheetId="3" r:id="rId6"/>
     <sheet name="Zadanie 4 - Średnie klasy" sheetId="4" r:id="rId7"/>
     <sheet name="Zadanie 5 - Dane osobowe" sheetId="5" r:id="rId8"/>
-    <sheet name="Zadanie 6 - Analiza" sheetId="6" r:id="rId9"/>
+    <sheet name="Zadanie 6 - Godziny pracy" sheetId="6" r:id="rId9"/>
+    <sheet name="Zadanie 7 - Analiza" sheetId="7" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="217">
   <si>
     <t>ZESTAW ZADAŃ NR 45 - CZĘŚĆ 1</t>
   </si>
@@ -61,373 +62,400 @@
     <t>Przedmiot</t>
   </si>
   <si>
-    <t>Oliwia Czarnecka</t>
-  </si>
-  <si>
-    <t>Lena Górska</t>
+    <t>Oliwia Sikorska</t>
+  </si>
+  <si>
+    <t>Adam Piotrowski</t>
+  </si>
+  <si>
+    <t>Mikołaj Kowalski</t>
+  </si>
+  <si>
+    <t>Julia Piekarska</t>
+  </si>
+  <si>
+    <t>Hanna Jaworska</t>
+  </si>
+  <si>
+    <t>ŚREDNIA</t>
+  </si>
+  <si>
+    <t>Język polski</t>
+  </si>
+  <si>
+    <t>Język angielski</t>
+  </si>
+  <si>
+    <t>Matematyka</t>
+  </si>
+  <si>
+    <t>Historia</t>
+  </si>
+  <si>
+    <t>Przyroda</t>
+  </si>
+  <si>
+    <t>Geografia</t>
+  </si>
+  <si>
+    <t>Informatyka</t>
+  </si>
+  <si>
+    <t>Plastyka</t>
+  </si>
+  <si>
+    <t>Muzyka</t>
+  </si>
+  <si>
+    <t>Wychowanie fizyczne</t>
+  </si>
+  <si>
+    <t>Technika</t>
+  </si>
+  <si>
+    <t>Religia</t>
+  </si>
+  <si>
+    <t>ŚREDNIA UCZNIA:</t>
+  </si>
+  <si>
+    <t>ŚREDNIA KLASY:</t>
+  </si>
+  <si>
+    <t>ZESTAW ZADAŃ NR 45 - CZĘŚĆ 2: ZAKUPY</t>
+  </si>
+  <si>
+    <t>Data: __________________ (wpisz dzisiejszą datę)</t>
+  </si>
+  <si>
+    <t>Poniżej znajduje się lista zakupów. Twoim zadaniem jest obliczenie wartości "Razem" dla każdego produktu</t>
+  </si>
+  <si>
+    <t>(cena × ilość) oraz obliczenie sumy całkowitej. Wartości "Razem" i "SUMA:" musisz obliczyć samodzielnie.</t>
+  </si>
+  <si>
+    <t>L.p.</t>
+  </si>
+  <si>
+    <t>Produkt</t>
+  </si>
+  <si>
+    <t>Cena (zł)</t>
+  </si>
+  <si>
+    <t>Ilość sztuk</t>
+  </si>
+  <si>
+    <t>Razem (zł)</t>
+  </si>
+  <si>
+    <t>Zeszyt 60 kartek</t>
+  </si>
+  <si>
+    <t>Cyrkiel</t>
+  </si>
+  <si>
+    <t>Pędzelek</t>
+  </si>
+  <si>
+    <t>Gumka do mazania</t>
+  </si>
+  <si>
+    <t>Linijka 30 cm</t>
+  </si>
+  <si>
+    <t>Blok rysunkowy A4</t>
+  </si>
+  <si>
+    <t>SUMA:</t>
+  </si>
+  <si>
+    <t>ZESTAW ZADAŃ NR 45 - CZĘŚĆ 3: SPRZEDAŻ MIESIĘCZNA</t>
+  </si>
+  <si>
+    <t>Poniżej znajduje się sprzedaż produktów w trzech miesiącach.</t>
+  </si>
+  <si>
+    <t>Oblicz "Razem" dla każdego produktu w każdym miesiącu (cena × ilość).</t>
+  </si>
+  <si>
+    <t>Następnie oblicz "Razem" dla każdego miesiąca (suma wszystkich produktów).</t>
+  </si>
+  <si>
+    <t>Na końcu oblicz sumę sprzedaży z wszystkich trzech miesięcy.</t>
+  </si>
+  <si>
+    <t>Styczeń:</t>
+  </si>
+  <si>
+    <t>Zeszyt</t>
+  </si>
+  <si>
+    <t>Ołówek</t>
+  </si>
+  <si>
+    <t>Długopis</t>
+  </si>
+  <si>
+    <t>Linijka</t>
+  </si>
+  <si>
+    <t>Gumka</t>
+  </si>
+  <si>
+    <t>Razem Styczeń:</t>
+  </si>
+  <si>
+    <t>Luty:</t>
+  </si>
+  <si>
+    <t>Razem Luty:</t>
+  </si>
+  <si>
+    <t>Marzec:</t>
+  </si>
+  <si>
+    <t>Razem Marzec:</t>
+  </si>
+  <si>
+    <t>SUMA z 3 miesięcy:</t>
+  </si>
+  <si>
+    <t>Średnia z 3 miesięcy:</t>
+  </si>
+  <si>
+    <t>ZADANIE 4: ŚREDNIE KLASY</t>
+  </si>
+  <si>
+    <t>Instrukcja:</t>
+  </si>
+  <si>
+    <t>1. W tabeli poniżej znajdują się oceny uczniów z różnych przedmiotów.</t>
+  </si>
+  <si>
+    <t>2. Uzupełnij kolumnę LP (kolejne numery).</t>
+  </si>
+  <si>
+    <t>3. Oblicz średią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
+  </si>
+  <si>
+    <t>4. Jeżeli średnia ucznia jest większa lub równa 4,75, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
+  </si>
+  <si>
+    <t>5. Oblicz średnią ocen dla każdego przedmiotu i wpisz w wierszu "Średnia przedmiotu:".</t>
+  </si>
+  <si>
+    <t>6. Oblicz średnią ocen całej klasy (średnią wszystkich ocen w tabeli) i wpisz w komórce obok "Średnia klasy:".</t>
+  </si>
+  <si>
+    <t>LP</t>
+  </si>
+  <si>
+    <t>Imię</t>
+  </si>
+  <si>
+    <t>Nazwisko</t>
+  </si>
+  <si>
+    <t>Biologia</t>
+  </si>
+  <si>
+    <t>Chemia</t>
+  </si>
+  <si>
+    <t>Średnia ucznia</t>
+  </si>
+  <si>
+    <t>Czy śrecnia powyżej 4,75?</t>
+  </si>
+  <si>
+    <t>Natalia</t>
+  </si>
+  <si>
+    <t>Sadowska</t>
+  </si>
+  <si>
+    <t>Hanna</t>
+  </si>
+  <si>
+    <t>Maciejewska</t>
+  </si>
+  <si>
+    <t>Zuzanna</t>
+  </si>
+  <si>
+    <t>Antoni</t>
+  </si>
+  <si>
+    <t>Kaczmarek</t>
+  </si>
+  <si>
+    <t>Filip</t>
+  </si>
+  <si>
+    <t>Kamiński</t>
+  </si>
+  <si>
+    <t>Anna</t>
+  </si>
+  <si>
+    <t>Górska</t>
+  </si>
+  <si>
+    <t>Nowak</t>
+  </si>
+  <si>
+    <t>Szymon</t>
+  </si>
+  <si>
+    <t>Zieliński</t>
+  </si>
+  <si>
+    <t>Średnia przedmiotu:</t>
+  </si>
+  <si>
+    <t>Średnia klasy:</t>
+  </si>
+  <si>
+    <t>ZADANIE 5 - DANE OSOBOWE</t>
+  </si>
+  <si>
+    <t>1. Rozdziel kolumnę "Imię i nazwisko" na dwie osobne kolumny: "Imię" i "Nazwisko"</t>
+  </si>
+  <si>
+    <t>2. Dodaj kolumnę "Lp." i ponumeruj wszystkie wiersze</t>
+  </si>
+  <si>
+    <t>3. Oblicz ilość osób urodzonych w 1998 roku (funkcja LICZ.JEŻELI)</t>
+  </si>
+  <si>
+    <t>4. Znajdź największe zarobki (funkcja MAKS)</t>
+  </si>
+  <si>
+    <t>5. Znajdź najmniejsze zarobki (funkcja MIN)</t>
+  </si>
+  <si>
+    <t>Imię i nazwisko</t>
+  </si>
+  <si>
+    <t>Data urodzenia</t>
+  </si>
+  <si>
+    <t>Zarobki (zł)</t>
+  </si>
+  <si>
+    <t>Maja Jaworska</t>
+  </si>
+  <si>
+    <t>Anna Malinowska</t>
+  </si>
+  <si>
+    <t>Antoni Szymański</t>
+  </si>
+  <si>
+    <t>Aleksander Zieliński</t>
+  </si>
+  <si>
+    <t>Jakub Lewandowski</t>
+  </si>
+  <si>
+    <t>Antoni Wiśniewski</t>
+  </si>
+  <si>
+    <t>Szymon Wójcik</t>
+  </si>
+  <si>
+    <t>Szymon Kozłowski</t>
+  </si>
+  <si>
+    <t>Lena Maciejewska</t>
+  </si>
+  <si>
+    <t>Amelia Sadowska</t>
+  </si>
+  <si>
+    <t>Szymon Zieliński</t>
+  </si>
+  <si>
+    <t>Filip Wiśniewski</t>
+  </si>
+  <si>
+    <t>OBLICZENIA:</t>
+  </si>
+  <si>
+    <t>Liczba osób urodzonych w 1998 roku:</t>
+  </si>
+  <si>
+    <t>Największe zarobki:</t>
+  </si>
+  <si>
+    <t>Najmniejsze zarobki:</t>
+  </si>
+  <si>
+    <t>ZADANIE 6 - DANE OSOBOWE I ILOŚĆ GODZIN PRACY</t>
+  </si>
+  <si>
+    <t>1. Oblicz ilość przepracowanych godzin dla każdej osoby</t>
+  </si>
+  <si>
+    <t>2. Podaj zarobki dla każdej osoby (stawka godzinowa × ilość przepracowanych godzin)</t>
+  </si>
+  <si>
+    <t>Stawka godzinowa (zł/h):</t>
+  </si>
+  <si>
+    <t>Ilość przepracowanych godzin</t>
+  </si>
+  <si>
+    <t>Adam Szymański</t>
+  </si>
+  <si>
+    <t>Filip Mazur</t>
   </si>
   <si>
     <t>Kacper Szymański</t>
   </si>
   <si>
-    <t>Oliwia Górska</t>
-  </si>
-  <si>
-    <t>Oliwia Piekarska</t>
-  </si>
-  <si>
-    <t>ŚREDNIA</t>
-  </si>
-  <si>
-    <t>Język polski</t>
-  </si>
-  <si>
-    <t>Język angielski</t>
-  </si>
-  <si>
-    <t>Matematyka</t>
-  </si>
-  <si>
-    <t>Historia</t>
-  </si>
-  <si>
-    <t>Przyroda</t>
-  </si>
-  <si>
-    <t>Geografia</t>
-  </si>
-  <si>
-    <t>Informatyka</t>
-  </si>
-  <si>
-    <t>Plastyka</t>
-  </si>
-  <si>
-    <t>Muzyka</t>
-  </si>
-  <si>
-    <t>Wychowanie fizyczne</t>
-  </si>
-  <si>
-    <t>Technika</t>
-  </si>
-  <si>
-    <t>Religia</t>
-  </si>
-  <si>
-    <t>ŚREDNIA UCZNIA:</t>
-  </si>
-  <si>
-    <t>ZESTAW ZADAŃ NR 45 - CZĘŚĆ 2: ZAKUPY</t>
-  </si>
-  <si>
-    <t>Data: __________________ (wpisz dzisiejszą datę)</t>
-  </si>
-  <si>
-    <t>Poniżej znajduje się lista zakupów. Twoim zadaniem jest obliczenie wartości "Razem" dla każdego produktu</t>
-  </si>
-  <si>
-    <t>(cena × ilość) oraz obliczenie sumy całkowitej. Wartości "Razem" i "SUMA:" musisz obliczyć samodzielnie.</t>
-  </si>
-  <si>
-    <t>L.p.</t>
-  </si>
-  <si>
-    <t>Produkt</t>
-  </si>
-  <si>
-    <t>Cena (zł)</t>
-  </si>
-  <si>
-    <t>Ilość sztuk</t>
-  </si>
-  <si>
-    <t>Razem (zł)</t>
-  </si>
-  <si>
-    <t>Ołówek HB</t>
-  </si>
-  <si>
-    <t>Linijka 30 cm</t>
-  </si>
-  <si>
-    <t>Długopis niebieski</t>
-  </si>
-  <si>
-    <t>Gumka do mazania</t>
-  </si>
-  <si>
-    <t>Zeszyt 60 kartek</t>
-  </si>
-  <si>
-    <t>Pędzelek</t>
-  </si>
-  <si>
-    <t>SUMA:</t>
-  </si>
-  <si>
-    <t>ZESTAW ZADAŃ NR 45 - CZĘŚĆ 3: SPRZEDAŻ MIESIĘCZNA</t>
-  </si>
-  <si>
-    <t>Poniżej znajduje się sprzedaż produktów w trzech miesiącach.</t>
-  </si>
-  <si>
-    <t>Oblicz "Razem" dla każdego produktu w każdym miesiącu (cena × ilość).</t>
-  </si>
-  <si>
-    <t>Następnie oblicz "Razem" dla każdego miesiąca (suma wszystkich produktów).</t>
-  </si>
-  <si>
-    <t>Na końcu oblicz sumę sprzedaży z wszystkich trzech miesięcy.</t>
-  </si>
-  <si>
-    <t>Styczeń:</t>
-  </si>
-  <si>
-    <t>Zeszyt</t>
-  </si>
-  <si>
-    <t>Ołówek</t>
-  </si>
-  <si>
-    <t>Długopis</t>
-  </si>
-  <si>
-    <t>Linijka</t>
-  </si>
-  <si>
-    <t>Gumka</t>
-  </si>
-  <si>
-    <t>Razem Styczeń:</t>
-  </si>
-  <si>
-    <t>Luty:</t>
-  </si>
-  <si>
-    <t>Razem Luty:</t>
-  </si>
-  <si>
-    <t>Marzec:</t>
-  </si>
-  <si>
-    <t>Razem Marzec:</t>
-  </si>
-  <si>
-    <t>SUMA z 3 miesięcy:</t>
-  </si>
-  <si>
-    <t>ZADANIE 4: ŚREDNIE KLASY</t>
-  </si>
-  <si>
-    <t>Instrukcja:</t>
-  </si>
-  <si>
-    <t>1. W tabeli poniżej znajdują się oceny uczniów z różnych przedmiotów.</t>
-  </si>
-  <si>
-    <t>2. Uzupełnij kolumnę LP (kolejne numery).</t>
-  </si>
-  <si>
-    <t>3. Oblicz średią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
-  </si>
-  <si>
-    <t>4. Jeżeli średnia ucznia jest większa lub równa 4,5, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
-  </si>
-  <si>
-    <t>5. Oblicz średnią ocen dla każdego przedmiotu i wpisz w wierszu "Średnia przedmiotu:".</t>
-  </si>
-  <si>
-    <t>6. Oblicz średnią ocen całej klasy (średnią wszystkich ocen w tabeli) i wpisz w komórce obok "Średnia klasy:".</t>
-  </si>
-  <si>
-    <t>LP</t>
-  </si>
-  <si>
-    <t>Imię</t>
-  </si>
-  <si>
-    <t>Nazwisko</t>
-  </si>
-  <si>
-    <t>Biologia</t>
-  </si>
-  <si>
-    <t>Chemia</t>
-  </si>
-  <si>
-    <t>Średnia ucznia</t>
-  </si>
-  <si>
-    <t>Czy pasek?</t>
-  </si>
-  <si>
-    <t>Amelia</t>
-  </si>
-  <si>
-    <t>Kaźmierczak</t>
-  </si>
-  <si>
-    <t>Jakub</t>
-  </si>
-  <si>
-    <t>Kozłowski</t>
-  </si>
-  <si>
-    <t>Jan</t>
-  </si>
-  <si>
-    <t>Kowalski</t>
-  </si>
-  <si>
-    <t>Filip</t>
-  </si>
-  <si>
-    <t>Wiśniewski</t>
-  </si>
-  <si>
-    <t>Kwiatkowski</t>
-  </si>
-  <si>
-    <t>Kacper</t>
-  </si>
-  <si>
-    <t>Jankowski</t>
-  </si>
-  <si>
-    <t>Średnia przedmiotu:</t>
-  </si>
-  <si>
-    <t>Średnia klasy:</t>
-  </si>
-  <si>
-    <t>ZADANIE 5 - DANE OSOBOWE</t>
-  </si>
-  <si>
-    <t>1. Rozdziel kolumnę "Imię i nazwisko" na dwie osobne kolumny: "Imię" i "Nazwisko"</t>
-  </si>
-  <si>
-    <t>2. Dodaj kolumnę "Lp." i ponumeruj wszystkie wiersze</t>
-  </si>
-  <si>
-    <t>3. Oblicz ilość osób urodzonych w 1998 roku (funkcja LICZ.JEŻELI)</t>
-  </si>
-  <si>
-    <t>4. Znajdź największe zarobki (funkcja MAKS)</t>
-  </si>
-  <si>
-    <t>5. Znajdź najmniejsze zarobki (funkcja MIN)</t>
-  </si>
-  <si>
-    <t>Imię i nazwisko</t>
-  </si>
-  <si>
-    <t>Data urodzenia</t>
-  </si>
-  <si>
-    <t>Zarobki (zł)</t>
-  </si>
-  <si>
-    <t>Emilia Bednarska</t>
-  </si>
-  <si>
-    <t>04.05.1990</t>
-  </si>
-  <si>
-    <t>Oliwia Rogalska</t>
-  </si>
-  <si>
-    <t>14.07.1986</t>
-  </si>
-  <si>
-    <t>Jakub Kaczmarek</t>
-  </si>
-  <si>
-    <t>21.01.1980</t>
-  </si>
-  <si>
-    <t>Hanna Borkowska</t>
-  </si>
-  <si>
-    <t>05.09.1983</t>
+    <t>Wojciech Grabowski</t>
+  </si>
+  <si>
+    <t>Jan Kaczmarek</t>
+  </si>
+  <si>
+    <t>Hanna Maciejewska</t>
+  </si>
+  <si>
+    <t>Lena Król</t>
+  </si>
+  <si>
+    <t>Jan Kowalczyk</t>
+  </si>
+  <si>
+    <t>Wojciech Jankowski</t>
+  </si>
+  <si>
+    <t>Lena Wójcik</t>
+  </si>
+  <si>
+    <t>Natalia Jaworska</t>
   </si>
   <si>
     <t>Julia Czarnecka</t>
   </si>
   <si>
-    <t>25.12.1985</t>
-  </si>
-  <si>
-    <t>Amelia Bednarska</t>
-  </si>
-  <si>
-    <t>09.06.1998</t>
-  </si>
-  <si>
-    <t>Anna Sikorska</t>
-  </si>
-  <si>
-    <t>26.02.2003</t>
-  </si>
-  <si>
-    <t>24.11.2003</t>
-  </si>
-  <si>
-    <t>Kacper Grabowski</t>
-  </si>
-  <si>
-    <t>15.06.2003</t>
-  </si>
-  <si>
-    <t>Natalia Sikorska</t>
-  </si>
-  <si>
-    <t>19.06.1975</t>
-  </si>
-  <si>
-    <t>Zuzanna Olszewska</t>
-  </si>
-  <si>
-    <t>10.06.2004</t>
-  </si>
-  <si>
-    <t>Wojciech Grabowski</t>
-  </si>
-  <si>
-    <t>10.04.1975</t>
-  </si>
-  <si>
-    <t>Emilia Wilk</t>
-  </si>
-  <si>
-    <t>24.01.1992</t>
-  </si>
-  <si>
-    <t>Natalia Urbaniak</t>
-  </si>
-  <si>
-    <t>23.06.1996</t>
-  </si>
-  <si>
-    <t>Maja Czarnecka</t>
-  </si>
-  <si>
-    <t>19.12.2004</t>
-  </si>
-  <si>
-    <t>OBLICZENIA:</t>
-  </si>
-  <si>
-    <t>Liczba osób urodzonych w 1998 roku:</t>
-  </si>
-  <si>
-    <t>Największe zarobki:</t>
-  </si>
-  <si>
-    <t>Najmniejsze zarobki:</t>
-  </si>
-  <si>
-    <t>ZADANIE 6 - ANALIZA SPRZEDAŻY</t>
+    <t>Emilia Jaworska</t>
+  </si>
+  <si>
+    <t>Maja Kaźmierczak</t>
+  </si>
+  <si>
+    <t>Kacper Piotrowski</t>
+  </si>
+  <si>
+    <t>Anna Lis</t>
+  </si>
+  <si>
+    <t>ZADANIE 7 - ANALIZA SPRZEDAŻY</t>
   </si>
   <si>
     <t>1. Rozbij kolumnę "Sprzedawca" na dwie osobne kolumny: "Imię" i "Nazwisko"</t>
@@ -481,163 +509,154 @@
     <t>Województwo</t>
   </si>
   <si>
+    <t>styczeń</t>
+  </si>
+  <si>
+    <t>Mikrofon studyjny</t>
+  </si>
+  <si>
+    <t>Anna Nowak</t>
+  </si>
+  <si>
+    <t>dolnośląskie</t>
+  </si>
+  <si>
+    <t>maj</t>
+  </si>
+  <si>
+    <t>Odtwarzacz DVD</t>
+  </si>
+  <si>
+    <t>Piotr Wiśniewski</t>
+  </si>
+  <si>
+    <t>podlaskie</t>
+  </si>
+  <si>
+    <t>marzec</t>
+  </si>
+  <si>
+    <t>Smartphone 5G 128GB</t>
+  </si>
+  <si>
+    <t>Agnieszka Wojciechowska</t>
+  </si>
+  <si>
+    <t>podkarpackie</t>
+  </si>
+  <si>
+    <t>Powerbank 20000mAh</t>
+  </si>
+  <si>
+    <t>Monika Krawczyk</t>
+  </si>
+  <si>
+    <t>pomorskie</t>
+  </si>
+  <si>
+    <t>Płyta główna</t>
+  </si>
+  <si>
+    <t>Katarzyna Mazur</t>
+  </si>
+  <si>
+    <t>łódzkie</t>
+  </si>
+  <si>
+    <t>kwiecień</t>
+  </si>
+  <si>
+    <t>Zasilacz 650W</t>
+  </si>
+  <si>
+    <t>Jan Kowalski</t>
+  </si>
+  <si>
+    <t>wielkopolskie</t>
+  </si>
+  <si>
+    <t>Michał Jankowski</t>
+  </si>
+  <si>
+    <t>lubelskie</t>
+  </si>
+  <si>
+    <t>Pamięć RAM 16GB</t>
+  </si>
+  <si>
+    <t>śląskie</t>
+  </si>
+  <si>
+    <t>luty</t>
+  </si>
+  <si>
+    <t>mazowieckie</t>
+  </si>
+  <si>
+    <t>Smartwatch</t>
+  </si>
+  <si>
+    <t>Marcin Zieliński</t>
+  </si>
+  <si>
+    <t>Monitor 24" 4K</t>
+  </si>
+  <si>
+    <t>Paweł Kwiatkowski</t>
+  </si>
+  <si>
+    <t>Projektor multimedialny</t>
+  </si>
+  <si>
+    <t>Magdalena Szymańska</t>
+  </si>
+  <si>
+    <t>małopolskie</t>
+  </si>
+  <si>
+    <t>Ewa Kowalczyk</t>
+  </si>
+  <si>
+    <t>zachodniopomorskie</t>
+  </si>
+  <si>
+    <t>Karta graficzna RTX</t>
+  </si>
+  <si>
     <t>czerwiec</t>
   </si>
   <si>
-    <t>Powerbank 20000mAh</t>
-  </si>
-  <si>
-    <t>Tomasz Kamiński</t>
-  </si>
-  <si>
-    <t>podlaskie</t>
-  </si>
-  <si>
-    <t>maj</t>
-  </si>
-  <si>
-    <t>Zasilacz 650W</t>
-  </si>
-  <si>
-    <t>Monika Krawczyk</t>
-  </si>
-  <si>
-    <t>zachodniopomorskie</t>
-  </si>
-  <si>
-    <t>luty</t>
+    <t>Smart TV 55"</t>
+  </si>
+  <si>
+    <t>Krzysztof Lewandowski</t>
+  </si>
+  <si>
+    <t>kujawsko-pomorskie</t>
+  </si>
+  <si>
+    <t>Obudowa gamingowa</t>
+  </si>
+  <si>
+    <t>Andrzej Woźniak</t>
+  </si>
+  <si>
+    <t>Drukarka laserowa</t>
+  </si>
+  <si>
+    <t>świętokrzyskie</t>
+  </si>
+  <si>
+    <t>warmińsko-mazurskie</t>
+  </si>
+  <si>
+    <t>Maria Dąbrowska</t>
+  </si>
+  <si>
+    <t>Barbara Kozłowska</t>
   </si>
   <si>
     <t>Router Wi-Fi 6</t>
-  </si>
-  <si>
-    <t>Ewa Kowalczyk</t>
-  </si>
-  <si>
-    <t>podkarpackie</t>
-  </si>
-  <si>
-    <t>Pamięć RAM 16GB</t>
-  </si>
-  <si>
-    <t>Marcin Zieliński</t>
-  </si>
-  <si>
-    <t>dolnośląskie</t>
-  </si>
-  <si>
-    <t>Głośnik Bluetooth</t>
-  </si>
-  <si>
-    <t>Andrzej Woźniak</t>
-  </si>
-  <si>
-    <t>Kamera internetowa</t>
-  </si>
-  <si>
-    <t>Barbara Kozłowska</t>
-  </si>
-  <si>
-    <t>łódzkie</t>
-  </si>
-  <si>
-    <t>styczeń</t>
-  </si>
-  <si>
-    <t>Paweł Kwiatkowski</t>
-  </si>
-  <si>
-    <t>wielkopolskie</t>
-  </si>
-  <si>
-    <t>marzec</t>
-  </si>
-  <si>
-    <t>Monitor 24" 4K</t>
-  </si>
-  <si>
-    <t>lubelskie</t>
-  </si>
-  <si>
-    <t>Procesor i5</t>
-  </si>
-  <si>
-    <t>Katarzyna Mazur</t>
-  </si>
-  <si>
-    <t>opolskie</t>
-  </si>
-  <si>
-    <t>Drukarka laserowa</t>
-  </si>
-  <si>
-    <t>pomorskie</t>
-  </si>
-  <si>
-    <t>Michał Jankowski</t>
-  </si>
-  <si>
-    <t>mazowieckie</t>
-  </si>
-  <si>
-    <t>Smart TV 55"</t>
-  </si>
-  <si>
-    <t>lubuskie</t>
-  </si>
-  <si>
-    <t>kwiecień</t>
-  </si>
-  <si>
-    <t>Płyta główna</t>
-  </si>
-  <si>
-    <t>Jan Kowalski</t>
-  </si>
-  <si>
-    <t>Konsola do gier</t>
-  </si>
-  <si>
-    <t>Krzysztof Lewandowski</t>
-  </si>
-  <si>
-    <t>Smartphone 5G 128GB</t>
-  </si>
-  <si>
-    <t>Słuchawki bezprzewodowe</t>
-  </si>
-  <si>
-    <t>kujawsko-pomorskie</t>
-  </si>
-  <si>
-    <t>Karta graficzna RTX</t>
-  </si>
-  <si>
-    <t>Agnieszka Wojciechowska</t>
-  </si>
-  <si>
-    <t>Mikrofon studyjny</t>
-  </si>
-  <si>
-    <t>Maria Dąbrowska</t>
-  </si>
-  <si>
-    <t>Smartwatch</t>
-  </si>
-  <si>
-    <t>Odtwarzacz DVD</t>
-  </si>
-  <si>
-    <t>warmińsko-mazurskie</t>
-  </si>
-  <si>
-    <t>Anna Nowak</t>
-  </si>
-  <si>
-    <t>Obudowa gamingowa</t>
-  </si>
-  <si>
-    <t>Tablet 10"</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -709,7 +728,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -732,12 +751,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD9EAD3"/>
         <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -768,7 +781,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -779,13 +792,12 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="5" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
@@ -1092,7 +1104,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A16" sqref="A16:G16"/>
@@ -1200,13 +1212,13 @@
         <v>2</v>
       </c>
       <c r="C17" s="3">
+        <v>3</v>
+      </c>
+      <c r="D17" s="3">
+        <v>2</v>
+      </c>
+      <c r="E17" s="3">
         <v>4</v>
-      </c>
-      <c r="D17" s="3">
-        <v>6</v>
-      </c>
-      <c r="E17" s="3">
-        <v>3</v>
       </c>
       <c r="F17" s="3">
         <v>6</v>
@@ -1221,16 +1233,16 @@
         <v>3</v>
       </c>
       <c r="C18" s="3">
+        <v>3</v>
+      </c>
+      <c r="D18" s="3">
+        <v>6</v>
+      </c>
+      <c r="E18" s="3">
+        <v>2</v>
+      </c>
+      <c r="F18" s="3">
         <v>4</v>
-      </c>
-      <c r="D18" s="3">
-        <v>4</v>
-      </c>
-      <c r="E18" s="3">
-        <v>6</v>
-      </c>
-      <c r="F18" s="3">
-        <v>5</v>
       </c>
       <c r="G18" s="4"/>
     </row>
@@ -1239,19 +1251,19 @@
         <v>21</v>
       </c>
       <c r="B19" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C19" s="3">
         <v>3</v>
       </c>
       <c r="D19" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E19" s="3">
+        <v>2</v>
+      </c>
+      <c r="F19" s="3">
         <v>5</v>
-      </c>
-      <c r="F19" s="3">
-        <v>6</v>
       </c>
       <c r="G19" s="4"/>
     </row>
@@ -1260,19 +1272,19 @@
         <v>22</v>
       </c>
       <c r="B20" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C20" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20" s="3">
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F20" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G20" s="4"/>
     </row>
@@ -1281,19 +1293,19 @@
         <v>23</v>
       </c>
       <c r="B21" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C21" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D21" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E21" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F21" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G21" s="4"/>
     </row>
@@ -1302,19 +1314,19 @@
         <v>24</v>
       </c>
       <c r="B22" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C22" s="3">
+        <v>2</v>
+      </c>
+      <c r="D22" s="3">
+        <v>5</v>
+      </c>
+      <c r="E22" s="3">
+        <v>5</v>
+      </c>
+      <c r="F22" s="3">
         <v>6</v>
-      </c>
-      <c r="D22" s="3">
-        <v>6</v>
-      </c>
-      <c r="E22" s="3">
-        <v>6</v>
-      </c>
-      <c r="F22" s="3">
-        <v>3</v>
       </c>
       <c r="G22" s="4"/>
     </row>
@@ -1326,16 +1338,16 @@
         <v>3</v>
       </c>
       <c r="C23" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D23" s="3">
         <v>3</v>
       </c>
       <c r="E23" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F23" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G23" s="4"/>
     </row>
@@ -1347,16 +1359,16 @@
         <v>3</v>
       </c>
       <c r="C24" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E24" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F24" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G24" s="4"/>
     </row>
@@ -1368,16 +1380,16 @@
         <v>6</v>
       </c>
       <c r="C25" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D25" s="3">
+        <v>4</v>
+      </c>
+      <c r="E25" s="3">
         <v>3</v>
       </c>
-      <c r="E25" s="3">
-        <v>6</v>
-      </c>
       <c r="F25" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G25" s="4"/>
     </row>
@@ -1386,10 +1398,10 @@
         <v>28</v>
       </c>
       <c r="B26" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C26" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" s="3">
         <v>5</v>
@@ -1398,7 +1410,7 @@
         <v>3</v>
       </c>
       <c r="F26" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G26" s="4"/>
     </row>
@@ -1407,19 +1419,19 @@
         <v>29</v>
       </c>
       <c r="B27" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C27" s="3">
+        <v>2</v>
+      </c>
+      <c r="D27" s="3">
         <v>4</v>
       </c>
-      <c r="D27" s="3">
-        <v>2</v>
-      </c>
       <c r="E27" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F27" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G27" s="4"/>
     </row>
@@ -1428,19 +1440,19 @@
         <v>30</v>
       </c>
       <c r="B28" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C28" s="3">
+        <v>4</v>
+      </c>
+      <c r="D28" s="3">
+        <v>2</v>
+      </c>
+      <c r="E28" s="3">
+        <v>2</v>
+      </c>
+      <c r="F28" s="3">
         <v>6</v>
-      </c>
-      <c r="D28" s="3">
-        <v>5</v>
-      </c>
-      <c r="E28" s="3">
-        <v>6</v>
-      </c>
-      <c r="F28" s="3">
-        <v>3</v>
       </c>
       <c r="G28" s="4"/>
     </row>
@@ -1453,6 +1465,12 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1486,7 +1504,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1506,7 +1524,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1516,29 +1534,29 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1546,99 +1564,99 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="7">
-        <v>1.5</v>
+        <v>42</v>
+      </c>
+      <c r="C13" s="8">
+        <v>4.5</v>
       </c>
       <c r="D13" s="3">
-        <v>2</v>
-      </c>
-      <c r="E13" s="8"/>
+        <v>4</v>
+      </c>
+      <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3">
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="7">
-        <v>4.1</v>
+        <v>43</v>
+      </c>
+      <c r="C14" s="8">
+        <v>9.3</v>
       </c>
       <c r="D14" s="3">
-        <v>10</v>
-      </c>
-      <c r="E14" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3">
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="7">
-        <v>1.9</v>
+        <v>44</v>
+      </c>
+      <c r="C15" s="8">
+        <v>6.9</v>
       </c>
       <c r="D15" s="3">
-        <v>1</v>
-      </c>
-      <c r="E15" s="8"/>
+        <v>4</v>
+      </c>
+      <c r="E15" s="9"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3">
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="7">
-        <v>1.5</v>
+        <v>45</v>
+      </c>
+      <c r="C16" s="8">
+        <v>1.2</v>
       </c>
       <c r="D16" s="3">
-        <v>7</v>
-      </c>
-      <c r="E16" s="8"/>
+        <v>2</v>
+      </c>
+      <c r="E16" s="9"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3">
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="7">
-        <v>5.2</v>
+        <v>46</v>
+      </c>
+      <c r="C17" s="8">
+        <v>2.3</v>
       </c>
       <c r="D17" s="3">
-        <v>4</v>
-      </c>
-      <c r="E17" s="8"/>
+        <v>6</v>
+      </c>
+      <c r="E17" s="9"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3">
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="7">
-        <v>5.2</v>
+        <v>47</v>
+      </c>
+      <c r="C18" s="8">
+        <v>5</v>
       </c>
       <c r="D18" s="3">
-        <v>5</v>
-      </c>
-      <c r="E18" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="E18" s="9"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="8"/>
+        <v>48</v>
+      </c>
+      <c r="E19" s="9"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1655,10 +1673,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A13" sqref="A13:D37"/>
+      <selection activeCell="A13" sqref="A13:D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1671,7 +1689,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1696,27 +1714,27 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="13" t="s">
-        <v>53</v>
+      <c r="A13" s="12" t="s">
+        <v>54</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1724,85 +1742,85 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="7">
-        <v>24.37</v>
+        <v>55</v>
+      </c>
+      <c r="B15" s="8">
+        <v>4.08</v>
       </c>
       <c r="C15" s="3">
-        <v>29</v>
-      </c>
-      <c r="D15" s="8"/>
+        <v>22</v>
+      </c>
+      <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="7">
-        <v>30.27</v>
+        <v>56</v>
+      </c>
+      <c r="B16" s="8">
+        <v>22.25</v>
       </c>
       <c r="C16" s="3">
-        <v>32</v>
-      </c>
-      <c r="D16" s="8"/>
+        <v>36</v>
+      </c>
+      <c r="D16" s="9"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="7">
-        <v>2.55</v>
+        <v>57</v>
+      </c>
+      <c r="B17" s="8">
+        <v>1.01</v>
       </c>
       <c r="C17" s="3">
-        <v>20</v>
-      </c>
-      <c r="D17" s="8"/>
+        <v>16</v>
+      </c>
+      <c r="D17" s="9"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="7">
-        <v>15.24</v>
+        <v>58</v>
+      </c>
+      <c r="B18" s="8">
+        <v>28.85</v>
       </c>
       <c r="C18" s="3">
-        <v>44</v>
-      </c>
-      <c r="D18" s="8"/>
+        <v>30</v>
+      </c>
+      <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="7">
-        <v>22.25</v>
+        <v>59</v>
+      </c>
+      <c r="B19" s="8">
+        <v>22.39</v>
       </c>
       <c r="C19" s="3">
-        <v>46</v>
-      </c>
-      <c r="D19" s="8"/>
+        <v>14</v>
+      </c>
+      <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="14"/>
+      <c r="C20" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="13"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3"/>
@@ -1811,8 +1829,8 @@
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="13" t="s">
-        <v>60</v>
+      <c r="A22" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1820,85 +1838,85 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="7">
-        <v>5.35</v>
+        <v>55</v>
+      </c>
+      <c r="B24" s="8">
+        <v>15.1</v>
       </c>
       <c r="C24" s="3">
-        <v>42</v>
-      </c>
-      <c r="D24" s="8"/>
+        <v>39</v>
+      </c>
+      <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="7">
-        <v>22.73</v>
+        <v>56</v>
+      </c>
+      <c r="B25" s="8">
+        <v>18.55</v>
       </c>
       <c r="C25" s="3">
-        <v>47</v>
-      </c>
-      <c r="D25" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="D25" s="9"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="7">
-        <v>9.68</v>
+        <v>57</v>
+      </c>
+      <c r="B26" s="8">
+        <v>29.96</v>
       </c>
       <c r="C26" s="3">
-        <v>20</v>
-      </c>
-      <c r="D26" s="8"/>
+        <v>32</v>
+      </c>
+      <c r="D26" s="9"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="7">
-        <v>23.36</v>
+        <v>58</v>
+      </c>
+      <c r="B27" s="8">
+        <v>8.23</v>
       </c>
       <c r="C27" s="3">
-        <v>8</v>
-      </c>
-      <c r="D27" s="8"/>
+        <v>38</v>
+      </c>
+      <c r="D27" s="9"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="7">
-        <v>28.41</v>
+        <v>59</v>
+      </c>
+      <c r="B28" s="8">
+        <v>20.96</v>
       </c>
       <c r="C28" s="3">
-        <v>6</v>
-      </c>
-      <c r="D28" s="8"/>
+        <v>5</v>
+      </c>
+      <c r="D28" s="9"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="14"/>
+      <c r="C29" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="13"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3"/>
@@ -1907,8 +1925,8 @@
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="13" t="s">
-        <v>62</v>
+      <c r="A31" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1916,89 +1934,97 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" s="7">
-        <v>12.24</v>
+        <v>55</v>
+      </c>
+      <c r="B33" s="8">
+        <v>25.11</v>
       </c>
       <c r="C33" s="3">
-        <v>12</v>
-      </c>
-      <c r="D33" s="8"/>
+        <v>27</v>
+      </c>
+      <c r="D33" s="9"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" s="7">
-        <v>29.92</v>
+        <v>56</v>
+      </c>
+      <c r="B34" s="8">
+        <v>23.33</v>
       </c>
       <c r="C34" s="3">
-        <v>46</v>
-      </c>
-      <c r="D34" s="8"/>
+        <v>41</v>
+      </c>
+      <c r="D34" s="9"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" s="7">
-        <v>3.55</v>
+        <v>57</v>
+      </c>
+      <c r="B35" s="8">
+        <v>16.42</v>
       </c>
       <c r="C35" s="3">
-        <v>5</v>
-      </c>
-      <c r="D35" s="8"/>
+        <v>45</v>
+      </c>
+      <c r="D35" s="9"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B36" s="7">
-        <v>27.61</v>
+        <v>58</v>
+      </c>
+      <c r="B36" s="8">
+        <v>20.010000000000002</v>
       </c>
       <c r="C36" s="3">
-        <v>19</v>
-      </c>
-      <c r="D36" s="8"/>
+        <v>14</v>
+      </c>
+      <c r="D36" s="9"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B37" s="7">
-        <v>3.85</v>
+        <v>59</v>
+      </c>
+      <c r="B37" s="8">
+        <v>12.16</v>
       </c>
       <c r="C37" s="3">
-        <v>25</v>
-      </c>
-      <c r="D37" s="8"/>
+        <v>14</v>
+      </c>
+      <c r="D37" s="9"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="C38" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D38" s="11"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" s="13"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="C40" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D40" s="12"/>
+      <c r="C40" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="C41" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2018,10 +2044,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A11" sqref="A11:L19"/>
+      <selection activeCell="A11" sqref="A11:L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2041,111 +2067,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="15" t="s">
-        <v>65</v>
+      <c r="A1" s="14" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="16" t="s">
+      <c r="A11" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="B11" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="H11" s="16" t="s">
+      <c r="G11" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="16" t="s">
+      <c r="I11" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="K11" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="L11" s="16" t="s">
+      <c r="J11" s="15" t="s">
         <v>79</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D12" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E12" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F12" s="3">
         <v>6</v>
       </c>
       <c r="G12" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H12" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I12" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J12" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
@@ -2153,31 +2179,31 @@
     <row r="13" spans="1:12">
       <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D13" s="3">
         <v>2</v>
       </c>
       <c r="E13" s="3">
+        <v>4</v>
+      </c>
+      <c r="F13" s="3">
+        <v>2</v>
+      </c>
+      <c r="G13" s="3">
+        <v>4</v>
+      </c>
+      <c r="H13" s="3">
         <v>3</v>
       </c>
-      <c r="F13" s="3">
-        <v>2</v>
-      </c>
-      <c r="G13" s="3">
-        <v>6</v>
-      </c>
-      <c r="H13" s="3">
-        <v>2</v>
-      </c>
       <c r="I13" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J13" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
@@ -2185,31 +2211,31 @@
     <row r="14" spans="1:12">
       <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D14" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E14" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F14" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G14" s="3">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3">
         <v>3</v>
       </c>
-      <c r="H14" s="3">
-        <v>6</v>
-      </c>
       <c r="I14" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J14" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
@@ -2217,31 +2243,31 @@
     <row r="15" spans="1:12">
       <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D15" s="3">
+        <v>4</v>
+      </c>
+      <c r="E15" s="3">
+        <v>2</v>
+      </c>
+      <c r="F15" s="3">
+        <v>2</v>
+      </c>
+      <c r="G15" s="3">
+        <v>4</v>
+      </c>
+      <c r="H15" s="3">
+        <v>2</v>
+      </c>
+      <c r="I15" s="3">
         <v>3</v>
       </c>
-      <c r="E15" s="3">
-        <v>4</v>
-      </c>
-      <c r="F15" s="3">
-        <v>4</v>
-      </c>
-      <c r="G15" s="3">
-        <v>2</v>
-      </c>
-      <c r="H15" s="3">
-        <v>4</v>
-      </c>
-      <c r="I15" s="3">
-        <v>2</v>
-      </c>
       <c r="J15" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
@@ -2249,22 +2275,22 @@
     <row r="16" spans="1:12">
       <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D16" s="3">
+        <v>2</v>
+      </c>
+      <c r="E16" s="3">
+        <v>2</v>
+      </c>
+      <c r="F16" s="3">
+        <v>2</v>
+      </c>
+      <c r="G16" s="3">
         <v>4</v>
-      </c>
-      <c r="E16" s="3">
-        <v>3</v>
-      </c>
-      <c r="F16" s="3">
-        <v>2</v>
-      </c>
-      <c r="G16" s="3">
-        <v>5</v>
       </c>
       <c r="H16" s="3">
         <v>2</v>
@@ -2281,72 +2307,136 @@
     <row r="17" spans="1:12">
       <c r="A17" s="4"/>
       <c r="B17" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D17" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E17" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F17" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G17" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H17" s="3">
         <v>4</v>
       </c>
       <c r="I17" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J17" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" s="3">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3">
+        <v>3</v>
+      </c>
+      <c r="F18" s="3">
+        <v>2</v>
+      </c>
+      <c r="G18" s="3">
+        <v>4</v>
+      </c>
+      <c r="H18" s="3">
+        <v>4</v>
+      </c>
+      <c r="I18" s="3">
+        <v>2</v>
+      </c>
+      <c r="J18" s="3">
+        <v>2</v>
+      </c>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" s="3">
+        <v>5</v>
+      </c>
+      <c r="E19" s="3">
+        <v>6</v>
+      </c>
+      <c r="F19" s="3">
+        <v>6</v>
+      </c>
+      <c r="G19" s="3">
+        <v>6</v>
+      </c>
+      <c r="H19" s="3">
+        <v>6</v>
+      </c>
+      <c r="I19" s="3">
+        <v>6</v>
+      </c>
+      <c r="J19" s="3">
+        <v>5</v>
+      </c>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:K1"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="D19:L19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="D21:L21"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2359,10 +2449,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A29" sqref="A29:B31"/>
+      <selection activeCell="A26" sqref="A26:B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2373,238 +2463,205 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="15" t="s">
-        <v>93</v>
+      <c r="A1" s="14" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="5" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" s="7">
-        <v>13794</v>
+        <v>107</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1981</v>
+      </c>
+      <c r="C11" s="8">
+        <v>3242</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C12" s="7">
-        <v>10098</v>
+        <v>108</v>
+      </c>
+      <c r="B12" s="3">
+        <v>2001</v>
+      </c>
+      <c r="C12" s="8">
+        <v>12904</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C13" s="7">
-        <v>8884</v>
+        <v>109</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1995</v>
+      </c>
+      <c r="C13" s="8">
+        <v>7171</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C14" s="7">
-        <v>8909</v>
+        <v>110</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1988</v>
+      </c>
+      <c r="C14" s="8">
+        <v>9244</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B15" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C15" s="7">
-        <v>9091</v>
+      <c r="B15" s="3">
+        <v>1988</v>
+      </c>
+      <c r="C15" s="8">
+        <v>6141</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C16" s="7">
-        <v>6991</v>
+      <c r="B16" s="3">
+        <v>1987</v>
+      </c>
+      <c r="C16" s="8">
+        <v>13534</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C17" s="7">
-        <v>6564</v>
+        <v>113</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1998</v>
+      </c>
+      <c r="C17" s="8">
+        <v>7969</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C18" s="7">
-        <v>11004</v>
+      <c r="B18" s="3">
+        <v>2004</v>
+      </c>
+      <c r="C18" s="8">
+        <v>14434</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C19" s="7">
-        <v>9936</v>
+        <v>115</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1986</v>
+      </c>
+      <c r="C19" s="8">
+        <v>10380</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C20" s="7">
-        <v>12993</v>
+        <v>116</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1976</v>
+      </c>
+      <c r="C20" s="8">
+        <v>4147</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C21" s="7">
-        <v>7206</v>
+        <v>117</v>
+      </c>
+      <c r="B21" s="3">
+        <v>2002</v>
+      </c>
+      <c r="C21" s="8">
+        <v>6265</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C22" s="7">
-        <v>8093</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C23" s="7">
-        <v>8104</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C24" s="7">
-        <v>4483</v>
+        <v>118</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1985</v>
+      </c>
+      <c r="C22" s="8">
+        <v>14476</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C25" s="7">
-        <v>5639</v>
-      </c>
+      <c r="A25" s="16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>120</v>
+      </c>
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>121</v>
+      </c>
+      <c r="B27" s="7"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="17" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>132</v>
-      </c>
-      <c r="B29" s="2"/>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>133</v>
-      </c>
-      <c r="B30" s="6"/>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>134</v>
-      </c>
-      <c r="B31" s="6"/>
+      <c r="A28" t="s">
+        <v>122</v>
+      </c>
+      <c r="B28" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2621,10 +2678,221 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A48" sqref="A48:B52"/>
+      <selection activeCell="A10" sqref="A10:C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="true" style="0"/>
+    <col min="2" max="2" width="15" customWidth="true" style="0"/>
+    <col min="3" max="3" width="18" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B11" s="3">
+        <v>178</v>
+      </c>
+      <c r="C11" s="9"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B12" s="3">
+        <v>190</v>
+      </c>
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B13" s="3">
+        <v>110</v>
+      </c>
+      <c r="C13" s="9"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B14" s="3">
+        <v>135</v>
+      </c>
+      <c r="C14" s="9"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B15" s="3">
+        <v>163</v>
+      </c>
+      <c r="C15" s="9"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B16" s="3">
+        <v>135</v>
+      </c>
+      <c r="C16" s="9"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B17" s="3">
+        <v>132</v>
+      </c>
+      <c r="C17" s="9"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B18" s="3">
+        <v>198</v>
+      </c>
+      <c r="C18" s="9"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B19" s="3">
+        <v>197</v>
+      </c>
+      <c r="C19" s="9"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B20" s="3">
+        <v>179</v>
+      </c>
+      <c r="C20" s="9"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B21" s="3">
+        <v>165</v>
+      </c>
+      <c r="C21" s="9"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B22" s="3">
+        <v>104</v>
+      </c>
+      <c r="C22" s="9"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B23" s="3">
+        <v>187</v>
+      </c>
+      <c r="C23" s="9"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B24" s="3">
+        <v>157</v>
+      </c>
+      <c r="C24" s="9"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B25" s="3">
+        <v>144</v>
+      </c>
+      <c r="C25" s="9"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B26" s="3">
+        <v>90</v>
+      </c>
+      <c r="C26" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:G50"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A46" sqref="A46:B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2639,86 +2907,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="15" t="s">
-        <v>135</v>
+      <c r="A1" s="14" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="5" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2726,22 +2994,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="D16" s="7">
-        <v>1148</v>
-      </c>
-      <c r="E16" s="7">
-        <v>1309</v>
+        <v>163</v>
+      </c>
+      <c r="D16" s="8">
+        <v>1461</v>
+      </c>
+      <c r="E16" s="8">
+        <v>1782</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2749,22 +3017,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D17" s="7">
-        <v>1317</v>
-      </c>
-      <c r="E17" s="7">
-        <v>1620</v>
+        <v>167</v>
+      </c>
+      <c r="D17" s="8">
+        <v>562</v>
+      </c>
+      <c r="E17" s="8">
+        <v>652</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2772,22 +3040,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="D18" s="7">
-        <v>1114</v>
-      </c>
-      <c r="E18" s="7">
-        <v>1404</v>
+        <v>171</v>
+      </c>
+      <c r="D18" s="8">
+        <v>1049</v>
+      </c>
+      <c r="E18" s="8">
+        <v>1364</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2795,22 +3063,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1127</v>
-      </c>
-      <c r="E19" s="7">
-        <v>1341</v>
+        <v>174</v>
+      </c>
+      <c r="D19" s="8">
+        <v>576</v>
+      </c>
+      <c r="E19" s="8">
+        <v>685</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2818,22 +3086,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="D20" s="7">
-        <v>527</v>
-      </c>
-      <c r="E20" s="7">
-        <v>601</v>
+        <v>177</v>
+      </c>
+      <c r="D20" s="8">
+        <v>1249</v>
+      </c>
+      <c r="E20" s="8">
+        <v>1449</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2841,22 +3109,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="D21" s="7">
-        <v>748</v>
-      </c>
-      <c r="E21" s="7">
-        <v>860</v>
+        <v>181</v>
+      </c>
+      <c r="D21" s="8">
+        <v>1020</v>
+      </c>
+      <c r="E21" s="8">
+        <v>1326</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2864,22 +3132,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D22" s="7">
-        <v>1184</v>
-      </c>
-      <c r="E22" s="7">
-        <v>1563</v>
+        <v>171</v>
+      </c>
+      <c r="D22" s="8">
+        <v>1160</v>
+      </c>
+      <c r="E22" s="8">
+        <v>1404</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2887,22 +3155,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D23" s="7">
-        <v>1216</v>
-      </c>
-      <c r="E23" s="7">
-        <v>1374</v>
+        <v>186</v>
+      </c>
+      <c r="D23" s="8">
+        <v>1256</v>
+      </c>
+      <c r="E23" s="8">
+        <v>1557</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2910,22 +3178,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>157</v>
+        <v>188</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="D24" s="7">
-        <v>1247</v>
-      </c>
-      <c r="E24" s="7">
-        <v>1721</v>
+        <v>181</v>
+      </c>
+      <c r="D24" s="8">
+        <v>1229</v>
+      </c>
+      <c r="E24" s="8">
+        <v>1524</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2933,22 +3201,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D25" s="8">
+        <v>917</v>
+      </c>
+      <c r="E25" s="8">
+        <v>1229</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="G25" s="3" t="s">
         <v>173</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D25" s="7">
-        <v>677</v>
-      </c>
-      <c r="E25" s="7">
-        <v>819</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2956,22 +3224,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D26" s="7">
-        <v>1385</v>
-      </c>
-      <c r="E26" s="7">
-        <v>1842</v>
+        <v>192</v>
+      </c>
+      <c r="D26" s="8">
+        <v>1303</v>
+      </c>
+      <c r="E26" s="8">
+        <v>1590</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2979,22 +3247,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D27" s="7">
-        <v>1238</v>
-      </c>
-      <c r="E27" s="7">
-        <v>1411</v>
+        <v>163</v>
+      </c>
+      <c r="D27" s="8">
+        <v>867</v>
+      </c>
+      <c r="E27" s="8">
+        <v>997</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3002,22 +3270,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>188</v>
+        <v>162</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="D28" s="7">
-        <v>651</v>
-      </c>
-      <c r="E28" s="7">
-        <v>768</v>
+        <v>167</v>
+      </c>
+      <c r="D28" s="8">
+        <v>982</v>
+      </c>
+      <c r="E28" s="8">
+        <v>1355</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3025,22 +3293,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D29" s="7">
-        <v>1249</v>
-      </c>
-      <c r="E29" s="7">
-        <v>1374</v>
+        <v>194</v>
+      </c>
+      <c r="D29" s="8">
+        <v>798</v>
+      </c>
+      <c r="E29" s="8">
+        <v>886</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3048,22 +3316,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D30" s="7">
-        <v>518</v>
-      </c>
-      <c r="E30" s="7">
-        <v>642</v>
+        <v>194</v>
+      </c>
+      <c r="D30" s="8">
+        <v>1256</v>
+      </c>
+      <c r="E30" s="8">
+        <v>1470</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>164</v>
+        <v>196</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3074,19 +3342,19 @@
         <v>188</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D31" s="7">
-        <v>1228</v>
-      </c>
-      <c r="E31" s="7">
-        <v>1437</v>
+        <v>194</v>
+      </c>
+      <c r="D31" s="8">
+        <v>1380</v>
+      </c>
+      <c r="E31" s="8">
+        <v>1587</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>172</v>
+        <v>198</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3094,22 +3362,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="D32" s="7">
-        <v>1294</v>
-      </c>
-      <c r="E32" s="7">
-        <v>1618</v>
+        <v>199</v>
+      </c>
+      <c r="D32" s="8">
+        <v>1395</v>
+      </c>
+      <c r="E32" s="8">
+        <v>1855</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3117,22 +3385,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>157</v>
+        <v>200</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="D33" s="7">
-        <v>1319</v>
-      </c>
-      <c r="E33" s="7">
-        <v>1767</v>
+        <v>201</v>
+      </c>
+      <c r="D33" s="8">
+        <v>1409</v>
+      </c>
+      <c r="E33" s="8">
+        <v>1592</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3140,22 +3408,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D34" s="8">
+        <v>1413</v>
+      </c>
+      <c r="E34" s="8">
+        <v>1639</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="G34" s="3" t="s">
         <v>173</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="D34" s="7">
-        <v>572</v>
-      </c>
-      <c r="E34" s="7">
-        <v>652</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3163,22 +3431,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="D35" s="7">
-        <v>1010</v>
-      </c>
-      <c r="E35" s="7">
-        <v>1202</v>
+        <v>171</v>
+      </c>
+      <c r="D35" s="8">
+        <v>731</v>
+      </c>
+      <c r="E35" s="8">
+        <v>980</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>166</v>
+        <v>202</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3186,22 +3454,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="D36" s="7">
-        <v>1202</v>
-      </c>
-      <c r="E36" s="7">
-        <v>1442</v>
+        <v>206</v>
+      </c>
+      <c r="D36" s="8">
+        <v>1087</v>
+      </c>
+      <c r="E36" s="8">
+        <v>1304</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>172</v>
+        <v>207</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3209,22 +3477,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>153</v>
+        <v>180</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="D37" s="7">
-        <v>1321</v>
-      </c>
-      <c r="E37" s="7">
-        <v>1717</v>
+        <v>174</v>
+      </c>
+      <c r="D37" s="8">
+        <v>1152</v>
+      </c>
+      <c r="E37" s="8">
+        <v>1555</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>197</v>
+        <v>168</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>172</v>
+        <v>208</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3232,22 +3500,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D38" s="7">
-        <v>938</v>
-      </c>
-      <c r="E38" s="7">
-        <v>1032</v>
+      <c r="D38" s="8">
+        <v>1243</v>
+      </c>
+      <c r="E38" s="8">
+        <v>1442</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>180</v>
+        <v>209</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3255,22 +3523,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D39" s="7">
-        <v>1067</v>
-      </c>
-      <c r="E39" s="7">
-        <v>1291</v>
+        <v>192</v>
+      </c>
+      <c r="D39" s="8">
+        <v>1352</v>
+      </c>
+      <c r="E39" s="8">
+        <v>1879</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>155</v>
+        <v>205</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>156</v>
+        <v>196</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3278,22 +3546,22 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="D40" s="7">
-        <v>1030</v>
-      </c>
-      <c r="E40" s="7">
-        <v>1215</v>
+        <v>177</v>
+      </c>
+      <c r="D40" s="8">
+        <v>1199</v>
+      </c>
+      <c r="E40" s="8">
+        <v>1559</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3301,22 +3569,22 @@
         <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>157</v>
+        <v>200</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D41" s="7">
-        <v>1344</v>
-      </c>
-      <c r="E41" s="7">
-        <v>1841</v>
+        <v>204</v>
+      </c>
+      <c r="D41" s="8">
+        <v>1338</v>
+      </c>
+      <c r="E41" s="8">
+        <v>1793</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3324,104 +3592,58 @@
         <v>27</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="D42" s="7">
-        <v>1254</v>
-      </c>
-      <c r="E42" s="7">
-        <v>1442</v>
+        <v>211</v>
+      </c>
+      <c r="D42" s="8">
+        <v>1466</v>
+      </c>
+      <c r="E42" s="8">
+        <v>1671</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="3">
-        <v>28</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="D43" s="7">
-        <v>1480</v>
-      </c>
-      <c r="E43" s="7">
-        <v>1968</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="3">
-        <v>29</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="D44" s="7">
-        <v>622</v>
-      </c>
-      <c r="E44" s="7">
-        <v>840</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>181</v>
-      </c>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
+        <v>212</v>
+      </c>
+      <c r="B46" s="7"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="17" t="s">
-        <v>131</v>
-      </c>
+      <c r="A47" t="s">
+        <v>213</v>
+      </c>
+      <c r="B47" s="7"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>206</v>
-      </c>
-      <c r="B48" s="6"/>
+        <v>214</v>
+      </c>
+      <c r="B48" s="7"/>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>207</v>
-      </c>
-      <c r="B49" s="6"/>
+        <v>215</v>
+      </c>
+      <c r="B49" s="7"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>208</v>
-      </c>
-      <c r="B50" s="6"/>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" t="s">
-        <v>209</v>
-      </c>
-      <c r="B51" s="6"/>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" t="s">
-        <v>210</v>
-      </c>
-      <c r="B52" s="6"/>
+        <v>216</v>
+      </c>
+      <c r="B50" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
